--- a/output2/【河洛話注音】金剛般若波羅蜜經001。法會因由分第一.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經001。法會因由分第一.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780B4428-A439-47DB-A2AE-44BDAE699F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5627674A-A1D2-4896-A454-CA346A656D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-26940" yWindow="855" windowWidth="26430" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="404">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1381,221 +1381,580 @@
     <t>坐</t>
   </si>
   <si>
+    <t>〔jin⁵〕
+【ㆢㄧㄣˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆤˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄣ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngoo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄫㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kip4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍ一ㆴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tak8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄚㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin⁵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ku1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄨ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>kim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㆬ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆲ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>puann1</t>
-  </si>
-  <si>
-    <t>na2</t>
-  </si>
-  <si>
-    <t>pho1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆩ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔phoo¹〕
+【ㄆㆦˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoo¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄧㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㆦˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄥ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ir2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tua7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄨㄚ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄨ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄧㄥ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshainn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㆮ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pah4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄚㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goo6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsap8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄚㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nia7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄧㄚ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tio0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄜ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡ一ㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ue7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siann5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆲ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshur3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puinn2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆪˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshir3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puinn7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆪ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄧㄨ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsiok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄧㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tso7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄜ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tser6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsai6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄞˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshiu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄧㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lo5</t>
-  </si>
-  <si>
-    <t>bit8</t>
-  </si>
-  <si>
-    <t>king1</t>
-  </si>
-  <si>
-    <t>huat4</t>
-  </si>
-  <si>
-    <t>e6</t>
-  </si>
-  <si>
-    <t>in1</t>
-  </si>
-  <si>
-    <t>iu5</t>
-  </si>
-  <si>
-    <t>hun1</t>
-  </si>
-  <si>
-    <t>te7</t>
-  </si>
-  <si>
-    <t>it4</t>
-  </si>
-  <si>
-    <t>ju5</t>
-  </si>
-  <si>
-    <t>si6</t>
-  </si>
-  <si>
-    <t>ngoo2</t>
-  </si>
-  <si>
-    <t>bun5</t>
-  </si>
-  <si>
-    <t>si5</t>
-  </si>
-  <si>
-    <t>put8</t>
-  </si>
-  <si>
-    <t>tsai6</t>
-  </si>
-  <si>
-    <t>ue7</t>
-  </si>
-  <si>
-    <t>kok4</t>
-  </si>
-  <si>
-    <t>ki5</t>
-  </si>
-  <si>
-    <t>tshiu7</t>
-  </si>
-  <si>
-    <t>kip4</t>
-  </si>
-  <si>
-    <t>koo1</t>
-  </si>
-  <si>
-    <t>tak8</t>
-  </si>
-  <si>
-    <t>uan5</t>
-  </si>
-  <si>
-    <t>ir2</t>
-  </si>
-  <si>
-    <t>tua7</t>
-  </si>
-  <si>
-    <t>pi2</t>
-  </si>
-  <si>
-    <t>khu1</t>
-  </si>
-  <si>
-    <t>tsing3</t>
-  </si>
-  <si>
-    <t>tshainn1</t>
-  </si>
-  <si>
-    <t>ji7</t>
-  </si>
-  <si>
-    <t>pah4</t>
-  </si>
-  <si>
-    <t>goo6</t>
-  </si>
-  <si>
-    <t>tsap8</t>
-  </si>
-  <si>
-    <t>lang5</t>
-  </si>
-  <si>
-    <t>ku1</t>
-  </si>
-  <si>
-    <t>nia7</t>
-  </si>
-  <si>
-    <t>se3</t>
-  </si>
-  <si>
-    <t>tsun1</t>
-  </si>
-  <si>
-    <t>sit8</t>
-  </si>
-  <si>
-    <t>tio0</t>
-  </si>
-  <si>
-    <t>i1</t>
-  </si>
-  <si>
-    <t>ti5</t>
-  </si>
-  <si>
-    <t>puat4</t>
-  </si>
-  <si>
-    <t>jip8</t>
-  </si>
-  <si>
-    <t>siann5</t>
-  </si>
-  <si>
-    <t>khit4</t>
-  </si>
-  <si>
-    <t>u1</t>
-  </si>
-  <si>
-    <t>tiong1</t>
-  </si>
-  <si>
-    <t>tshur3</t>
-  </si>
-  <si>
-    <t>i2</t>
-  </si>
-  <si>
-    <t>huan5</t>
-  </si>
-  <si>
-    <t>tsi3</t>
-  </si>
-  <si>
-    <t>puinn2</t>
-  </si>
-  <si>
-    <t>tshir3</t>
-  </si>
-  <si>
-    <t>puinn7</t>
-  </si>
-  <si>
-    <t>git4</t>
-  </si>
-  <si>
-    <t>siu1</t>
-  </si>
-  <si>
-    <t>se2</t>
-  </si>
-  <si>
-    <t>tsiok4</t>
-  </si>
-  <si>
-    <t>hu1</t>
-  </si>
-  <si>
-    <t>tso7</t>
-  </si>
-  <si>
-    <t>ji5</t>
-  </si>
-  <si>
-    <t>tser6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiok4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="77">
+  <fonts count="78">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -2130,6 +2489,13 @@
       <color theme="1"/>
       <name val="細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="芫荽 0.94"/>
+      <family val="3"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -2332,7 +2698,7 @@
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2662,6 +3028,9 @@
     </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
@@ -3610,7 +3979,7 @@
   <dimension ref="A2:V58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -3700,8 +4069,12 @@
       <c r="E3" s="85"/>
       <c r="F3" s="85"/>
       <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
+      <c r="H3" s="85" t="s">
+        <v>263</v>
+      </c>
+      <c r="I3" s="85" t="s">
+        <v>304</v>
+      </c>
       <c r="J3" s="85"/>
       <c r="K3" s="85"/>
       <c r="L3" s="85"/>
@@ -3713,7 +4086,7 @@
       <c r="R3" s="85"/>
       <c r="S3" s="82"/>
       <c r="T3" s="78"/>
-      <c r="V3" s="112" t="s">
+      <c r="V3" s="113" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3721,28 +4094,28 @@
       <c r="B4" s="69"/>
       <c r="D4" s="102"/>
       <c r="E4" s="102" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="F4" s="102" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="G4" s="102" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="H4" s="102" t="s">
-        <v>265</v>
+        <v>403</v>
       </c>
       <c r="I4" s="102" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="J4" s="102" t="s">
-        <v>267</v>
+        <v>402</v>
       </c>
       <c r="K4" s="102" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="L4" s="102" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="M4" s="102"/>
       <c r="N4" s="102"/>
@@ -3751,7 +4124,7 @@
       <c r="Q4" s="102"/>
       <c r="R4" s="102"/>
       <c r="S4" s="56"/>
-      <c r="V4" s="113"/>
+      <c r="V4" s="114"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="70">
@@ -3793,28 +4166,44 @@
       <c r="Q5" s="79"/>
       <c r="R5" s="79"/>
       <c r="S5" s="57"/>
-      <c r="V5" s="113"/>
+      <c r="V5" s="114"/>
     </row>
     <row r="6" spans="2:22" s="51" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="71"/>
       <c r="C6" s="52"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="112" t="s">
+        <v>301</v>
+      </c>
+      <c r="G6" s="112" t="s">
+        <v>303</v>
+      </c>
+      <c r="H6" s="112" t="s">
+        <v>306</v>
+      </c>
+      <c r="I6" s="112" t="s">
+        <v>307</v>
+      </c>
+      <c r="J6" s="112" t="s">
+        <v>308</v>
+      </c>
+      <c r="K6" s="112" t="s">
+        <v>310</v>
+      </c>
+      <c r="L6" s="112" t="s">
+        <v>312</v>
+      </c>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="112"/>
       <c r="S6" s="58"/>
-      <c r="V6" s="113"/>
+      <c r="V6" s="114"/>
     </row>
     <row r="7" spans="2:22" s="50" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="68"/>
@@ -3835,28 +4224,28 @@
       <c r="Q7" s="81"/>
       <c r="R7" s="81"/>
       <c r="S7" s="61"/>
-      <c r="V7" s="113"/>
+      <c r="V7" s="114"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="69"/>
       <c r="C8" s="54"/>
       <c r="D8" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" s="102" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="102" t="s">
+        <v>268</v>
+      </c>
+      <c r="G8" s="102" t="s">
         <v>270</v>
       </c>
-      <c r="E8" s="102" t="s">
-        <v>271</v>
-      </c>
-      <c r="F8" s="102" t="s">
+      <c r="H8" s="102" t="s">
         <v>272</v>
       </c>
-      <c r="G8" s="102" t="s">
-        <v>273</v>
-      </c>
-      <c r="H8" s="102" t="s">
+      <c r="I8" s="102" t="s">
         <v>274</v>
-      </c>
-      <c r="I8" s="102" t="s">
-        <v>275</v>
       </c>
       <c r="J8" s="102" t="s">
         <v>276</v>
@@ -3870,7 +4259,7 @@
       <c r="Q8" s="102"/>
       <c r="R8" s="102"/>
       <c r="S8" s="56"/>
-      <c r="V8" s="113"/>
+      <c r="V8" s="114"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="70">
@@ -3909,18 +4298,32 @@
       <c r="R9" s="79"/>
       <c r="S9" s="57"/>
       <c r="T9" s="78"/>
-      <c r="V9" s="113"/>
+      <c r="V9" s="114"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="71"/>
       <c r="C10" s="54"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
+      <c r="D10" s="103" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="103" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="103" t="s">
+        <v>269</v>
+      </c>
+      <c r="G10" s="103" t="s">
+        <v>271</v>
+      </c>
+      <c r="H10" s="103" t="s">
+        <v>273</v>
+      </c>
+      <c r="I10" s="103" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" s="103" t="s">
+        <v>277</v>
+      </c>
       <c r="K10" s="103"/>
       <c r="L10" s="103"/>
       <c r="M10" s="103"/>
@@ -3930,7 +4333,7 @@
       <c r="Q10" s="103"/>
       <c r="R10" s="103"/>
       <c r="S10" s="62"/>
-      <c r="V10" s="113"/>
+      <c r="V10" s="114"/>
     </row>
     <row r="11" spans="2:22" s="92" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="89"/>
@@ -3951,52 +4354,52 @@
       <c r="Q11" s="91"/>
       <c r="R11" s="91"/>
       <c r="S11" s="61"/>
-      <c r="V11" s="113"/>
+      <c r="V11" s="114"/>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="69"/>
       <c r="C12" s="54"/>
       <c r="D12" s="102" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E12" s="102" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F12" s="102" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G12" s="102" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="H12" s="102"/>
       <c r="I12" s="102" t="s">
         <v>276</v>
       </c>
       <c r="J12" s="102" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="K12" s="102"/>
       <c r="L12" s="102" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="M12" s="102" t="s">
-        <v>283</v>
+        <v>396</v>
       </c>
       <c r="N12" s="102"/>
       <c r="O12" s="102" t="s">
-        <v>284</v>
+        <v>357</v>
       </c>
       <c r="P12" s="102" t="s">
-        <v>285</v>
+        <v>398</v>
       </c>
       <c r="Q12" s="102" t="s">
-        <v>286</v>
+        <v>363</v>
       </c>
       <c r="R12" s="102" t="s">
-        <v>287</v>
+        <v>400</v>
       </c>
       <c r="S12" s="56"/>
-      <c r="V12" s="113"/>
+      <c r="V12" s="114"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="70">
@@ -4050,26 +4453,50 @@
         <v>215</v>
       </c>
       <c r="S13" s="57"/>
-      <c r="V13" s="114"/>
+      <c r="V13" s="115"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="71"/>
       <c r="C14" s="54"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
+      <c r="D14" s="103" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14" s="103" t="s">
+        <v>281</v>
+      </c>
+      <c r="F14" s="103" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" s="103" t="s">
+        <v>314</v>
+      </c>
       <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
+      <c r="I14" s="103" t="s">
+        <v>277</v>
+      </c>
+      <c r="J14" s="103" t="s">
+        <v>316</v>
+      </c>
       <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
+      <c r="L14" s="103" t="s">
+        <v>318</v>
+      </c>
+      <c r="M14" s="103" t="s">
+        <v>397</v>
+      </c>
       <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="103"/>
+      <c r="O14" s="103" t="s">
+        <v>358</v>
+      </c>
+      <c r="P14" s="103" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q14" s="103" t="s">
+        <v>364</v>
+      </c>
+      <c r="R14" s="103" t="s">
+        <v>401</v>
+      </c>
       <c r="S14" s="62"/>
       <c r="V14" s="75"/>
     </row>
@@ -4098,47 +4525,47 @@
       <c r="B16" s="69"/>
       <c r="C16" s="54"/>
       <c r="D16" s="102" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" s="102" t="s">
+        <v>286</v>
+      </c>
+      <c r="F16" s="102" t="s">
         <v>288</v>
       </c>
-      <c r="E16" s="102" t="s">
-        <v>289</v>
-      </c>
-      <c r="F16" s="102" t="s">
+      <c r="G16" s="102" t="s">
         <v>290</v>
-      </c>
-      <c r="G16" s="102" t="s">
-        <v>291</v>
       </c>
       <c r="H16" s="102"/>
       <c r="I16" s="102" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="J16" s="102" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="K16" s="102" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="L16" s="102" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="M16" s="102" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="N16" s="102" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="O16" s="102" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="P16" s="102" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="Q16" s="102" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="R16" s="102" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="S16" s="56"/>
       <c r="V16" s="75"/>
@@ -4200,28 +4627,58 @@
     <row r="18" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="71"/>
       <c r="C18" s="54"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
+      <c r="D18" s="103" t="s">
+        <v>285</v>
+      </c>
+      <c r="E18" s="103" t="s">
+        <v>287</v>
+      </c>
+      <c r="F18" s="103" t="s">
+        <v>289</v>
+      </c>
+      <c r="G18" s="103" t="s">
+        <v>291</v>
+      </c>
       <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="103"/>
+      <c r="I18" s="103" t="s">
+        <v>320</v>
+      </c>
+      <c r="J18" s="103" t="s">
+        <v>322</v>
+      </c>
+      <c r="K18" s="103" t="s">
+        <v>324</v>
+      </c>
+      <c r="L18" s="103" t="s">
+        <v>326</v>
+      </c>
+      <c r="M18" s="103" t="s">
+        <v>328</v>
+      </c>
+      <c r="N18" s="103" t="s">
+        <v>330</v>
+      </c>
+      <c r="O18" s="103" t="s">
+        <v>332</v>
+      </c>
+      <c r="P18" s="103" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q18" s="103" t="s">
+        <v>336</v>
+      </c>
+      <c r="R18" s="103" t="s">
+        <v>338</v>
+      </c>
       <c r="S18" s="62"/>
       <c r="V18" s="75"/>
     </row>
     <row r="19" spans="1:22" s="50" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="68"/>
       <c r="C19" s="59"/>
-      <c r="D19" s="87"/>
+      <c r="D19" s="87" t="s">
+        <v>262</v>
+      </c>
       <c r="E19" s="87"/>
       <c r="F19" s="87"/>
       <c r="G19" s="87"/>
@@ -4243,43 +4700,43 @@
       <c r="B20" s="69"/>
       <c r="C20" s="54"/>
       <c r="D20" s="102" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E20" s="102" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F20" s="102"/>
       <c r="G20" s="102" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="H20" s="102" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="I20" s="102"/>
       <c r="J20" s="102" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="K20" s="102" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="L20" s="102" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="M20" s="102" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="N20" s="102"/>
       <c r="O20" s="102" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="P20" s="102" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="Q20" s="102" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="R20" s="102" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="S20" s="56"/>
       <c r="V20" s="75"/>
@@ -4341,21 +4798,45 @@
     <row r="22" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="71"/>
       <c r="C22" s="54"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
+      <c r="D22" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>295</v>
+      </c>
       <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
+      <c r="G22" s="103" t="s">
+        <v>340</v>
+      </c>
+      <c r="H22" s="103" t="s">
+        <v>316</v>
+      </c>
       <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
+      <c r="J22" s="103" t="s">
+        <v>342</v>
+      </c>
+      <c r="K22" s="103" t="s">
+        <v>344</v>
+      </c>
+      <c r="L22" s="103" t="s">
+        <v>346</v>
+      </c>
+      <c r="M22" s="103" t="s">
+        <v>316</v>
+      </c>
       <c r="N22" s="103"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="103"/>
+      <c r="O22" s="103" t="s">
+        <v>348</v>
+      </c>
+      <c r="P22" s="103" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q22" s="103" t="s">
+        <v>352</v>
+      </c>
+      <c r="R22" s="103" t="s">
+        <v>354</v>
+      </c>
       <c r="S22" s="62"/>
       <c r="V22" s="75"/>
     </row>
@@ -4385,42 +4866,42 @@
       <c r="C24" s="54"/>
       <c r="D24" s="102"/>
       <c r="E24" s="102" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="F24" s="102"/>
       <c r="G24" s="102" t="s">
-        <v>284</v>
+        <v>357</v>
       </c>
       <c r="H24" s="102" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="I24" s="102" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="J24" s="102" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="K24" s="102" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="L24" s="102"/>
       <c r="M24" s="102" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="N24" s="102" t="s">
-        <v>286</v>
+        <v>363</v>
       </c>
       <c r="O24" s="102" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="P24" s="102" t="s">
-        <v>316</v>
+        <v>365</v>
       </c>
       <c r="Q24" s="102" t="s">
-        <v>317</v>
+        <v>367</v>
       </c>
       <c r="R24" s="102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S24" s="56"/>
       <c r="V24" s="75"/>
@@ -4485,20 +4966,44 @@
       <c r="B26" s="71"/>
       <c r="C26" s="54"/>
       <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
+      <c r="E26" s="103" t="s">
+        <v>356</v>
+      </c>
       <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
+      <c r="G26" s="103" t="s">
+        <v>358</v>
+      </c>
+      <c r="H26" s="103" t="s">
+        <v>322</v>
+      </c>
+      <c r="I26" s="103" t="s">
+        <v>360</v>
+      </c>
+      <c r="J26" s="103" t="s">
+        <v>297</v>
+      </c>
+      <c r="K26" s="103" t="s">
+        <v>346</v>
+      </c>
       <c r="L26" s="103"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="103"/>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="103"/>
+      <c r="M26" s="103" t="s">
+        <v>362</v>
+      </c>
+      <c r="N26" s="103" t="s">
+        <v>364</v>
+      </c>
+      <c r="O26" s="103" t="s">
+        <v>360</v>
+      </c>
+      <c r="P26" s="103" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q26" s="103" t="s">
+        <v>368</v>
+      </c>
+      <c r="R26" s="103" t="s">
+        <v>275</v>
+      </c>
       <c r="S26" s="62"/>
       <c r="V26" s="75"/>
     </row>
@@ -4529,43 +5034,43 @@
       <c r="B28" s="69"/>
       <c r="C28" s="1"/>
       <c r="D28" s="102" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="E28" s="102" t="s">
-        <v>318</v>
+        <v>369</v>
       </c>
       <c r="F28" s="102"/>
       <c r="G28" s="102" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="H28" s="102" t="s">
-        <v>320</v>
+        <v>373</v>
       </c>
       <c r="I28" s="102" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="J28" s="102" t="s">
-        <v>322</v>
+        <v>377</v>
       </c>
       <c r="K28" s="102"/>
       <c r="L28" s="102" t="s">
-        <v>323</v>
+        <v>378</v>
       </c>
       <c r="M28" s="102" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="N28" s="102" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="O28" s="102"/>
       <c r="P28" s="102" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="Q28" s="102" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="R28" s="102" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="S28" s="56"/>
       <c r="T28" s="1"/>
@@ -4629,21 +5134,45 @@
     <row r="30" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="73"/>
       <c r="C30" s="52"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
+      <c r="D30" s="103" t="s">
+        <v>297</v>
+      </c>
+      <c r="E30" s="103" t="s">
+        <v>370</v>
+      </c>
       <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
+      <c r="G30" s="103" t="s">
+        <v>372</v>
+      </c>
+      <c r="H30" s="103" t="s">
+        <v>374</v>
+      </c>
+      <c r="I30" s="103" t="s">
+        <v>376</v>
+      </c>
+      <c r="J30" s="103" t="s">
+        <v>368</v>
+      </c>
       <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
+      <c r="L30" s="103" t="s">
+        <v>379</v>
+      </c>
+      <c r="M30" s="103" t="s">
+        <v>346</v>
+      </c>
+      <c r="N30" s="103" t="s">
+        <v>381</v>
+      </c>
       <c r="O30" s="103"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103"/>
+      <c r="P30" s="103" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q30" s="103" t="s">
+        <v>350</v>
+      </c>
+      <c r="R30" s="103" t="s">
+        <v>354</v>
+      </c>
       <c r="S30" s="58"/>
       <c r="V30" s="75"/>
     </row>
@@ -4676,26 +5205,26 @@
       <c r="C32" s="1"/>
       <c r="D32" s="102"/>
       <c r="E32" s="102" t="s">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="F32" s="102" t="s">
-        <v>327</v>
+        <v>386</v>
       </c>
       <c r="G32" s="102" t="s">
-        <v>318</v>
+        <v>369</v>
       </c>
       <c r="H32" s="102"/>
       <c r="I32" s="102" t="s">
-        <v>328</v>
+        <v>388</v>
       </c>
       <c r="J32" s="102" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="K32" s="102" t="s">
-        <v>330</v>
+        <v>392</v>
       </c>
       <c r="L32" s="102" t="s">
-        <v>331</v>
+        <v>394</v>
       </c>
       <c r="M32" s="102"/>
       <c r="N32" s="102"/>
@@ -4754,14 +5283,28 @@
       <c r="B34" s="73"/>
       <c r="C34" s="1"/>
       <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
+      <c r="E34" s="103" t="s">
+        <v>385</v>
+      </c>
+      <c r="F34" s="103" t="s">
+        <v>387</v>
+      </c>
+      <c r="G34" s="103" t="s">
+        <v>370</v>
+      </c>
       <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
+      <c r="I34" s="103" t="s">
+        <v>389</v>
+      </c>
+      <c r="J34" s="103" t="s">
+        <v>391</v>
+      </c>
+      <c r="K34" s="103" t="s">
+        <v>393</v>
+      </c>
+      <c r="L34" s="103" t="s">
+        <v>395</v>
+      </c>
       <c r="M34" s="103"/>
       <c r="N34" s="103"/>
       <c r="O34" s="103"/>
@@ -5296,7 +5839,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="116" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -5314,7 +5857,7 @@
       <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="115" t="s">
+      <c r="I5" s="116" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="7" t="s">
@@ -5339,7 +5882,7 @@
       <c r="R5" s="11"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="116"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="12" t="s">
         <v>16</v>
       </c>
@@ -5359,7 +5902,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="116"/>
+      <c r="I6" s="117"/>
       <c r="J6" s="12" t="s">
         <v>17</v>
       </c>
@@ -5381,7 +5924,7 @@
       <c r="Q6" s="15"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="116"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
@@ -5397,7 +5940,7 @@
       <c r="G7" s="17">
         <v>30</v>
       </c>
-      <c r="I7" s="116"/>
+      <c r="I7" s="117"/>
       <c r="J7" s="16" t="s">
         <v>22</v>
       </c>
@@ -5419,7 +5962,7 @@
       <c r="Q7" s="15"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="116"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
@@ -5435,7 +5978,7 @@
       <c r="G8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="116"/>
+      <c r="I8" s="117"/>
       <c r="J8" s="19" t="s">
         <v>24</v>
       </c>
@@ -5457,7 +6000,7 @@
       <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="116"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="12" t="s">
         <v>33</v>
       </c>
@@ -5473,7 +6016,7 @@
       <c r="G9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="116"/>
+      <c r="I9" s="117"/>
       <c r="J9" s="12" t="s">
         <v>33</v>
       </c>
@@ -5495,7 +6038,7 @@
       <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="117"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="12" t="s">
         <v>38</v>
       </c>
@@ -5511,7 +6054,7 @@
       <c r="G10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="117"/>
+      <c r="I10" s="118"/>
       <c r="J10" s="12" t="s">
         <v>43</v>
       </c>
@@ -5534,7 +6077,7 @@
       <c r="R10" s="29"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="116" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -5552,7 +6095,7 @@
       <c r="G11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="115" t="s">
+      <c r="I11" s="116" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="7" t="s">
@@ -5576,7 +6119,7 @@
       <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="116"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="12" t="s">
         <v>16</v>
       </c>
@@ -5596,7 +6139,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="116"/>
+      <c r="I12" s="117"/>
       <c r="J12" s="12" t="s">
         <v>17</v>
       </c>
@@ -5616,7 +6159,7 @@
       <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="116"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="16" t="s">
         <v>22</v>
       </c>
@@ -5630,7 +6173,7 @@
       <c r="G13" s="17">
         <v>50</v>
       </c>
-      <c r="I13" s="116"/>
+      <c r="I13" s="117"/>
       <c r="J13" s="16" t="s">
         <v>22</v>
       </c>
@@ -5650,7 +6193,7 @@
       <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="116"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="12" t="s">
         <v>24</v>
       </c>
@@ -5664,7 +6207,7 @@
       <c r="G14" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="116"/>
+      <c r="I14" s="117"/>
       <c r="J14" s="12" t="s">
         <v>24</v>
       </c>
@@ -5684,7 +6227,7 @@
       <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="116"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="12" t="s">
         <v>33</v>
       </c>
@@ -5698,7 +6241,7 @@
       <c r="G15" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="116"/>
+      <c r="I15" s="117"/>
       <c r="J15" s="12" t="s">
         <v>33</v>
       </c>
@@ -5718,7 +6261,7 @@
       <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="117"/>
+      <c r="B16" s="118"/>
       <c r="C16" s="12" t="s">
         <v>38</v>
       </c>
@@ -5732,7 +6275,7 @@
       <c r="G16" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="117"/>
+      <c r="I16" s="118"/>
       <c r="J16" s="12" t="s">
         <v>43</v>
       </c>

--- a/output2/【河洛話注音】金剛般若波羅蜜經001。法會因由分第一.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經001。法會因由分第一.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5627674A-A1D2-4896-A454-CA346A656D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E782B312-FC17-4CD8-90CF-F15F66E16B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26940" yWindow="855" windowWidth="26430" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -1132,10 +1132,6 @@
     <t>ㄚㄏˊ</t>
   </si>
   <si>
-    <t>金剛般若波羅蜜經。法會因由分第一</t>
-    <phoneticPr fontId="59" type="noConversion"/>
-  </si>
-  <si>
     <t>OUTPUT_PATH</t>
   </si>
   <si>
@@ -1947,7 +1943,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>金剛般若波羅蜜經001。法會因由分第一</t>
+    <phoneticPr fontId="59" type="noConversion"/>
+  </si>
+  <si>
     <t>jiok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3876,8 +3877,8 @@
   </sheetPr>
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -3917,7 +3918,7 @@
         <v>166</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>180</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -3930,10 +3931,10 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="109" t="s">
         <v>181</v>
-      </c>
-      <c r="C6" s="109" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -3946,7 +3947,7 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="108" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C9" s="110">
         <v>40</v>
@@ -3954,7 +3955,7 @@
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="111" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="110">
         <v>15</v>
@@ -3978,7 +3979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="A2:V58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -4070,10 +4071,10 @@
       <c r="F3" s="85"/>
       <c r="G3" s="85"/>
       <c r="H3" s="85" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I3" s="85" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J3" s="85"/>
       <c r="K3" s="85"/>
@@ -4094,28 +4095,28 @@
       <c r="B4" s="69"/>
       <c r="D4" s="102"/>
       <c r="E4" s="102" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F4" s="102" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G4" s="102" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H4" s="102" t="s">
         <v>403</v>
       </c>
       <c r="I4" s="102" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="102" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K4" s="102" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L4" s="102" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M4" s="102"/>
       <c r="N4" s="102"/>
@@ -4131,34 +4132,34 @@
         <v>1</v>
       </c>
       <c r="D5" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="F5" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="G5" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="G5" s="79" t="s">
+      <c r="H5" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="I5" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="I5" s="79" t="s">
+      <c r="J5" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="K5" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="K5" s="79" t="s">
+      <c r="L5" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="L5" s="79" t="s">
+      <c r="M5" s="79" t="s">
         <v>193</v>
-      </c>
-      <c r="M5" s="79" t="s">
-        <v>194</v>
       </c>
       <c r="N5" s="79"/>
       <c r="O5" s="79"/>
@@ -4173,28 +4174,28 @@
       <c r="C6" s="52"/>
       <c r="D6" s="112"/>
       <c r="E6" s="112" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F6" s="112" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G6" s="112" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H6" s="112" t="s">
+        <v>305</v>
+      </c>
+      <c r="I6" s="112" t="s">
         <v>306</v>
       </c>
-      <c r="I6" s="112" t="s">
+      <c r="J6" s="112" t="s">
         <v>307</v>
       </c>
-      <c r="J6" s="112" t="s">
-        <v>308</v>
-      </c>
       <c r="K6" s="112" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L6" s="112" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M6" s="112"/>
       <c r="N6" s="112"/>
@@ -4230,25 +4231,25 @@
       <c r="B8" s="69"/>
       <c r="C8" s="54"/>
       <c r="D8" s="102" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E8" s="102" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F8" s="102" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G8" s="102" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H8" s="102" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I8" s="102" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J8" s="102" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="102"/>
@@ -4268,25 +4269,25 @@
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="79" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="F9" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="G9" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="H9" s="79" t="s">
         <v>198</v>
       </c>
-      <c r="H9" s="79" t="s">
+      <c r="I9" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="I9" s="79" t="s">
+      <c r="J9" s="79" t="s">
         <v>200</v>
-      </c>
-      <c r="J9" s="79" t="s">
-        <v>201</v>
       </c>
       <c r="K9" s="79"/>
       <c r="L9" s="79"/>
@@ -4304,25 +4305,25 @@
       <c r="B10" s="71"/>
       <c r="C10" s="54"/>
       <c r="D10" s="103" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E10" s="103" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F10" s="103" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G10" s="103" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H10" s="103" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I10" s="103" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J10" s="103" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K10" s="103"/>
       <c r="L10" s="103"/>
@@ -4360,43 +4361,43 @@
       <c r="B12" s="69"/>
       <c r="C12" s="54"/>
       <c r="D12" s="102" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E12" s="102" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F12" s="102" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G12" s="102" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H12" s="102"/>
       <c r="I12" s="102" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J12" s="102" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K12" s="102"/>
       <c r="L12" s="102" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M12" s="102" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N12" s="102"/>
       <c r="O12" s="102" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P12" s="102" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q12" s="102" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R12" s="102" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S12" s="56"/>
       <c r="V12" s="114"/>
@@ -4408,49 +4409,49 @@
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="79" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="E13" s="79" t="s">
+      <c r="F13" s="79" t="s">
         <v>203</v>
       </c>
-      <c r="F13" s="79" t="s">
+      <c r="G13" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="G13" s="79" t="s">
+      <c r="H13" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="H13" s="79" t="s">
+      <c r="I13" s="79" t="s">
+        <v>200</v>
+      </c>
+      <c r="J13" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="I13" s="79" t="s">
-        <v>201</v>
-      </c>
-      <c r="J13" s="79" t="s">
+      <c r="K13" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="K13" s="79" t="s">
+      <c r="L13" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="L13" s="79" t="s">
+      <c r="M13" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="M13" s="79" t="s">
+      <c r="N13" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="N13" s="79" t="s">
+      <c r="O13" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="O13" s="79" t="s">
+      <c r="P13" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="P13" s="79" t="s">
+      <c r="Q13" s="79" t="s">
         <v>213</v>
       </c>
-      <c r="Q13" s="79" t="s">
+      <c r="R13" s="79" t="s">
         <v>214</v>
-      </c>
-      <c r="R13" s="79" t="s">
-        <v>215</v>
       </c>
       <c r="S13" s="57"/>
       <c r="V13" s="115"/>
@@ -4459,43 +4460,43 @@
       <c r="B14" s="71"/>
       <c r="C14" s="54"/>
       <c r="D14" s="103" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E14" s="103" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F14" s="103" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G14" s="103" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H14" s="103"/>
       <c r="I14" s="103" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J14" s="103" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K14" s="103"/>
       <c r="L14" s="103" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M14" s="103" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N14" s="103"/>
       <c r="O14" s="103" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P14" s="103" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q14" s="103" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R14" s="103" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="S14" s="62"/>
       <c r="V14" s="75"/>
@@ -4525,47 +4526,47 @@
       <c r="B16" s="69"/>
       <c r="C16" s="54"/>
       <c r="D16" s="102" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E16" s="102" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F16" s="102" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G16" s="102" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H16" s="102"/>
       <c r="I16" s="102" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J16" s="102" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K16" s="102" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L16" s="102" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M16" s="102" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N16" s="102" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O16" s="102" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P16" s="102" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q16" s="102" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R16" s="102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S16" s="56"/>
       <c r="V16" s="75"/>
@@ -4577,49 +4578,49 @@
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="E17" s="79" t="s">
+      <c r="F17" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="F17" s="79" t="s">
+      <c r="G17" s="79" t="s">
         <v>218</v>
       </c>
-      <c r="G17" s="79" t="s">
+      <c r="H17" s="79" t="s">
+        <v>207</v>
+      </c>
+      <c r="I17" s="79" t="s">
         <v>219</v>
       </c>
-      <c r="H17" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="I17" s="79" t="s">
+      <c r="J17" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="J17" s="79" t="s">
+      <c r="K17" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="K17" s="79" t="s">
+      <c r="L17" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="L17" s="79" t="s">
+      <c r="M17" s="79" t="s">
         <v>223</v>
       </c>
-      <c r="M17" s="79" t="s">
+      <c r="N17" s="79" t="s">
         <v>224</v>
       </c>
-      <c r="N17" s="79" t="s">
+      <c r="O17" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="O17" s="79" t="s">
+      <c r="P17" s="79" t="s">
         <v>226</v>
       </c>
-      <c r="P17" s="79" t="s">
+      <c r="Q17" s="79" t="s">
         <v>227</v>
       </c>
-      <c r="Q17" s="79" t="s">
+      <c r="R17" s="79" t="s">
         <v>228</v>
-      </c>
-      <c r="R17" s="79" t="s">
-        <v>229</v>
       </c>
       <c r="S17" s="57"/>
       <c r="V17" s="75"/>
@@ -4628,47 +4629,47 @@
       <c r="B18" s="71"/>
       <c r="C18" s="54"/>
       <c r="D18" s="103" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E18" s="103" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F18" s="103" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G18" s="103" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H18" s="103"/>
       <c r="I18" s="103" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J18" s="103" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K18" s="103" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L18" s="103" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M18" s="103" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N18" s="103" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O18" s="103" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P18" s="103" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q18" s="103" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="R18" s="103" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S18" s="62"/>
       <c r="V18" s="75"/>
@@ -4677,7 +4678,7 @@
       <c r="B19" s="68"/>
       <c r="C19" s="59"/>
       <c r="D19" s="87" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E19" s="87"/>
       <c r="F19" s="87"/>
@@ -4700,43 +4701,43 @@
       <c r="B20" s="69"/>
       <c r="C20" s="54"/>
       <c r="D20" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E20" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F20" s="102"/>
       <c r="G20" s="102" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H20" s="102" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I20" s="102"/>
       <c r="J20" s="102" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K20" s="102" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L20" s="102" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M20" s="102" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N20" s="102"/>
       <c r="O20" s="102" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P20" s="102" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q20" s="102" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R20" s="102" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S20" s="56"/>
       <c r="V20" s="75"/>
@@ -4748,49 +4749,49 @@
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="79" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="E21" s="79" t="s">
+      <c r="F21" s="79" t="s">
         <v>231</v>
       </c>
-      <c r="F21" s="79" t="s">
+      <c r="G21" s="79" t="s">
         <v>232</v>
       </c>
-      <c r="G21" s="79" t="s">
+      <c r="H21" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" s="79" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" s="79" t="s">
         <v>233</v>
       </c>
-      <c r="H21" s="79" t="s">
+      <c r="K21" s="79" t="s">
+        <v>234</v>
+      </c>
+      <c r="L21" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="M21" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="N21" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="I21" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="J21" s="79" t="s">
-        <v>234</v>
-      </c>
-      <c r="K21" s="79" t="s">
-        <v>235</v>
-      </c>
-      <c r="L21" s="79" t="s">
+      <c r="O21" s="79" t="s">
         <v>236</v>
       </c>
-      <c r="M21" s="79" t="s">
-        <v>207</v>
-      </c>
-      <c r="N21" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="O21" s="79" t="s">
+      <c r="P21" s="79" t="s">
         <v>237</v>
       </c>
-      <c r="P21" s="79" t="s">
+      <c r="Q21" s="79" t="s">
         <v>238</v>
       </c>
-      <c r="Q21" s="79" t="s">
+      <c r="R21" s="79" t="s">
         <v>239</v>
-      </c>
-      <c r="R21" s="79" t="s">
-        <v>240</v>
       </c>
       <c r="S21" s="57"/>
       <c r="V21" s="75"/>
@@ -4799,43 +4800,43 @@
       <c r="B22" s="71"/>
       <c r="C22" s="54"/>
       <c r="D22" s="103" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E22" s="103" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F22" s="103"/>
       <c r="G22" s="103" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H22" s="103" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I22" s="103"/>
       <c r="J22" s="103" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K22" s="103" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L22" s="103" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M22" s="103" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N22" s="103"/>
       <c r="O22" s="103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P22" s="103" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q22" s="103" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R22" s="103" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S22" s="62"/>
       <c r="V22" s="75"/>
@@ -4866,42 +4867,42 @@
       <c r="C24" s="54"/>
       <c r="D24" s="102"/>
       <c r="E24" s="102" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F24" s="102"/>
       <c r="G24" s="102" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H24" s="102" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I24" s="102" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J24" s="102" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K24" s="102" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L24" s="102"/>
       <c r="M24" s="102" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N24" s="102" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O24" s="102" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P24" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q24" s="102" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R24" s="102" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S24" s="56"/>
       <c r="V24" s="75"/>
@@ -4913,49 +4914,49 @@
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="79" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E25" s="79" t="s">
+        <v>240</v>
+      </c>
+      <c r="F25" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="H25" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="I25" s="79" t="s">
         <v>241</v>
       </c>
-      <c r="F25" s="79" t="s">
-        <v>211</v>
-      </c>
-      <c r="G25" s="79" t="s">
-        <v>212</v>
-      </c>
-      <c r="H25" s="79" t="s">
-        <v>221</v>
-      </c>
-      <c r="I25" s="79" t="s">
+      <c r="J25" s="79" t="s">
         <v>242</v>
       </c>
-      <c r="J25" s="79" t="s">
+      <c r="K25" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="L25" s="79" t="s">
+        <v>231</v>
+      </c>
+      <c r="M25" s="79" t="s">
         <v>243</v>
       </c>
-      <c r="K25" s="79" t="s">
-        <v>236</v>
-      </c>
-      <c r="L25" s="79" t="s">
-        <v>232</v>
-      </c>
-      <c r="M25" s="79" t="s">
+      <c r="N25" s="79" t="s">
         <v>244</v>
       </c>
-      <c r="N25" s="79" t="s">
+      <c r="O25" s="79" t="s">
+        <v>241</v>
+      </c>
+      <c r="P25" s="79" t="s">
         <v>245</v>
       </c>
-      <c r="O25" s="79" t="s">
-        <v>242</v>
-      </c>
-      <c r="P25" s="79" t="s">
+      <c r="Q25" s="79" t="s">
         <v>246</v>
       </c>
-      <c r="Q25" s="79" t="s">
-        <v>247</v>
-      </c>
       <c r="R25" s="79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S25" s="57"/>
       <c r="T25" s="50"/>
@@ -4967,42 +4968,42 @@
       <c r="C26" s="54"/>
       <c r="D26" s="103"/>
       <c r="E26" s="103" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F26" s="103"/>
       <c r="G26" s="103" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H26" s="103" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I26" s="103" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J26" s="103" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K26" s="103" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L26" s="103"/>
       <c r="M26" s="103" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N26" s="103" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O26" s="103" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P26" s="103" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q26" s="103" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R26" s="103" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S26" s="62"/>
       <c r="V26" s="75"/>
@@ -5034,43 +5035,43 @@
       <c r="B28" s="69"/>
       <c r="C28" s="1"/>
       <c r="D28" s="102" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E28" s="102" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F28" s="102"/>
       <c r="G28" s="102" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H28" s="102" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I28" s="102" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J28" s="102" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K28" s="102"/>
       <c r="L28" s="102" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M28" s="102" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N28" s="102" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O28" s="102"/>
       <c r="P28" s="102" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q28" s="102" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R28" s="102" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S28" s="56"/>
       <c r="T28" s="1"/>
@@ -5082,49 +5083,49 @@
         <v>7</v>
       </c>
       <c r="D29" s="79" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E29" s="79" t="s">
+        <v>247</v>
+      </c>
+      <c r="F29" s="79" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="F29" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="G29" s="79" t="s">
+      <c r="H29" s="79" t="s">
         <v>249</v>
       </c>
-      <c r="H29" s="79" t="s">
+      <c r="I29" s="79" t="s">
         <v>250</v>
       </c>
-      <c r="I29" s="79" t="s">
+      <c r="J29" s="79" t="s">
         <v>251</v>
       </c>
-      <c r="J29" s="79" t="s">
+      <c r="K29" s="79" t="s">
+        <v>231</v>
+      </c>
+      <c r="L29" s="79" t="s">
         <v>252</v>
       </c>
-      <c r="K29" s="79" t="s">
-        <v>232</v>
-      </c>
-      <c r="L29" s="79" t="s">
+      <c r="M29" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="N29" s="79" t="s">
         <v>253</v>
       </c>
-      <c r="M29" s="79" t="s">
-        <v>236</v>
-      </c>
-      <c r="N29" s="79" t="s">
+      <c r="O29" s="79" t="s">
+        <v>207</v>
+      </c>
+      <c r="P29" s="79" t="s">
         <v>254</v>
       </c>
-      <c r="O29" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="P29" s="79" t="s">
-        <v>255</v>
-      </c>
       <c r="Q29" s="79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R29" s="79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S29" s="57"/>
       <c r="T29" s="50"/>
@@ -5135,43 +5136,43 @@
       <c r="B30" s="73"/>
       <c r="C30" s="52"/>
       <c r="D30" s="103" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E30" s="103" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F30" s="103"/>
       <c r="G30" s="103" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H30" s="103" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I30" s="103" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J30" s="103" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K30" s="103"/>
       <c r="L30" s="103" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M30" s="103" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N30" s="103" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O30" s="103"/>
       <c r="P30" s="103" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q30" s="103" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R30" s="103" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S30" s="58"/>
       <c r="V30" s="75"/>
@@ -5205,26 +5206,26 @@
       <c r="C32" s="1"/>
       <c r="D32" s="102"/>
       <c r="E32" s="102" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F32" s="102" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G32" s="102" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H32" s="102"/>
       <c r="I32" s="102" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J32" s="102" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K32" s="102" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L32" s="102" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M32" s="102"/>
       <c r="N32" s="102"/>
@@ -5242,34 +5243,34 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E33" s="79" t="s">
+        <v>255</v>
+      </c>
+      <c r="F33" s="79" t="s">
         <v>256</v>
       </c>
-      <c r="F33" s="79" t="s">
+      <c r="G33" s="79" t="s">
+        <v>247</v>
+      </c>
+      <c r="H33" s="79" t="s">
+        <v>207</v>
+      </c>
+      <c r="I33" s="79" t="s">
         <v>257</v>
       </c>
-      <c r="G33" s="79" t="s">
-        <v>248</v>
-      </c>
-      <c r="H33" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="I33" s="79" t="s">
+      <c r="J33" s="79" t="s">
         <v>258</v>
       </c>
-      <c r="J33" s="79" t="s">
+      <c r="K33" s="79" t="s">
         <v>259</v>
       </c>
-      <c r="K33" s="79" t="s">
+      <c r="L33" s="79" t="s">
         <v>260</v>
       </c>
-      <c r="L33" s="79" t="s">
-        <v>261</v>
-      </c>
       <c r="M33" s="79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N33" s="79"/>
       <c r="O33" s="79"/>
@@ -5284,26 +5285,26 @@
       <c r="C34" s="1"/>
       <c r="D34" s="103"/>
       <c r="E34" s="103" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F34" s="103" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G34" s="103" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H34" s="103"/>
       <c r="I34" s="103" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J34" s="103" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K34" s="103" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L34" s="103" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M34" s="103"/>
       <c r="N34" s="103"/>

--- a/output2/【河洛話注音】金剛般若波羅蜜經001。法會因由分第一.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經001。法會因由分第一.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E782B312-FC17-4CD8-90CF-F15F66E16B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23ADA464-9AAE-4AFF-B6E6-8B783DD4E574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="400">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1164,9 +1164,6 @@
     <t>波</t>
   </si>
   <si>
-    <t>羅</t>
-  </si>
-  <si>
     <t>蜜</t>
   </si>
   <si>
@@ -1179,9 +1176,6 @@
     <t>法</t>
   </si>
   <si>
-    <t>會</t>
-  </si>
-  <si>
     <t>因</t>
   </si>
   <si>
@@ -1263,24 +1257,15 @@
     <t>丘</t>
   </si>
   <si>
-    <t>眾</t>
-  </si>
-  <si>
     <t>千</t>
   </si>
   <si>
     <t>二</t>
   </si>
   <si>
-    <t>百</t>
-  </si>
-  <si>
     <t>五</t>
   </si>
   <si>
-    <t>十</t>
-  </si>
-  <si>
     <t>人</t>
   </si>
   <si>
@@ -1347,15 +1332,9 @@
     <t>本</t>
   </si>
   <si>
-    <t>處</t>
-  </si>
-  <si>
     <t>飯</t>
   </si>
   <si>
-    <t>訖</t>
-  </si>
-  <si>
     <t>收</t>
   </si>
   <si>
@@ -1372,9 +1351,6 @@
   </si>
   <si>
     <t>而</t>
-  </si>
-  <si>
-    <t>坐</t>
   </si>
   <si>
     <t>〔jin⁵〕
@@ -1394,22 +1370,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆤˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>in1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄧㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iu5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1422,18 +1386,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>te7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>it4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1454,10 +1410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ngoo2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1478,10 +1430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㆦ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tak8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1510,10 +1458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>khit4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1526,23 +1470,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄧㆬ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kong1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㆲ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>puann1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㆩ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1555,10 +1487,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆡㄧㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄆㆦˉ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1579,10 +1507,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄧㄥ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bun5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1595,34 +1519,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>put8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ir2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tua7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㄨㄚ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pi2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1631,110 +1531,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>khu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsing3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧㄥ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tshainn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㆮ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ji7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆡㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pah4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄚㆷ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goo6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsap8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄚㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nia7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄧㄚ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>se3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㆤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sit8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tio0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄜ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ti5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1755,34 +1567,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆡ一ㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ue7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄨㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>siann5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ki5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1795,18 +1587,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㄧㆲ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tshur3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1823,50 +1603,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>puinn2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㆪˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tshir3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>puinn7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㆪ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>siu1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>se2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1875,50 +1615,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsiok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hu1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tso7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄜ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ji5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆡㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tser6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsai6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㄞˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1928,14 +1632,6 @@
   </si>
   <si>
     <t>ㄍㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tshiu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㄧㄨ˪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1947,7 +1643,303 @@
     <phoneticPr fontId="59" type="noConversion"/>
   </si>
   <si>
-    <t>jiok4</t>
+    <t>ㆢㄧㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆩˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>處</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㆬˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆩˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄨㄚ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khiu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄧㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ni2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huan7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gut4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄜ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hue7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pun2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㄣˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒ一ㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢ一ㆴ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1955,7 +1947,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="78">
+  <fonts count="82">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -2495,6 +2487,32 @@
     <font>
       <sz val="18"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="芫荽 0.94"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Serif TC Medium"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="吳守禮細明台語注音"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Sitka Text Semibold"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="芫荽 0.94"/>
       <family val="3"/>
       <charset val="136"/>
@@ -2699,7 +2717,7 @@
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3031,6 +3049,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3877,7 +3907,7 @@
   </sheetPr>
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3918,7 +3948,7 @@
         <v>166</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>402</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -3979,8 +4009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="A2:V58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -4071,10 +4101,10 @@
       <c r="F3" s="85"/>
       <c r="G3" s="85"/>
       <c r="H3" s="85" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="I3" s="85" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="J3" s="85"/>
       <c r="K3" s="85"/>
@@ -4087,7 +4117,7 @@
       <c r="R3" s="85"/>
       <c r="S3" s="82"/>
       <c r="T3" s="78"/>
-      <c r="V3" s="113" t="s">
+      <c r="V3" s="117" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4095,28 +4125,28 @@
       <c r="B4" s="69"/>
       <c r="D4" s="102"/>
       <c r="E4" s="102" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="F4" s="102" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="G4" s="102" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="H4" s="102" t="s">
-        <v>403</v>
+        <v>254</v>
       </c>
       <c r="I4" s="102" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="J4" s="102" t="s">
-        <v>401</v>
+        <v>323</v>
       </c>
       <c r="K4" s="102" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="L4" s="102" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="M4" s="102"/>
       <c r="N4" s="102"/>
@@ -4125,7 +4155,7 @@
       <c r="Q4" s="102"/>
       <c r="R4" s="102"/>
       <c r="S4" s="56"/>
-      <c r="V4" s="114"/>
+      <c r="V4" s="118"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="70">
@@ -4149,17 +4179,17 @@
       <c r="I5" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="113" t="s">
+        <v>390</v>
+      </c>
+      <c r="K5" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="K5" s="79" t="s">
+      <c r="L5" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="L5" s="79" t="s">
+      <c r="M5" s="79" t="s">
         <v>192</v>
-      </c>
-      <c r="M5" s="79" t="s">
-        <v>193</v>
       </c>
       <c r="N5" s="79"/>
       <c r="O5" s="79"/>
@@ -4167,35 +4197,35 @@
       <c r="Q5" s="79"/>
       <c r="R5" s="79"/>
       <c r="S5" s="57"/>
-      <c r="V5" s="114"/>
+      <c r="V5" s="118"/>
     </row>
     <row r="6" spans="2:22" s="51" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="71"/>
       <c r="C6" s="52"/>
       <c r="D6" s="112"/>
       <c r="E6" s="112" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="F6" s="112" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="G6" s="112" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="H6" s="112" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="I6" s="112" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="J6" s="112" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="K6" s="112" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="L6" s="112" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="M6" s="112"/>
       <c r="N6" s="112"/>
@@ -4204,7 +4234,7 @@
       <c r="Q6" s="112"/>
       <c r="R6" s="112"/>
       <c r="S6" s="58"/>
-      <c r="V6" s="114"/>
+      <c r="V6" s="118"/>
     </row>
     <row r="7" spans="2:22" s="50" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="68"/>
@@ -4225,31 +4255,31 @@
       <c r="Q7" s="81"/>
       <c r="R7" s="81"/>
       <c r="S7" s="61"/>
-      <c r="V7" s="114"/>
+      <c r="V7" s="118"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="69"/>
       <c r="C8" s="54"/>
       <c r="D8" s="102" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E8" s="102" t="s">
-        <v>265</v>
+        <v>392</v>
       </c>
       <c r="F8" s="102" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="G8" s="102" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="H8" s="102" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="I8" s="102" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="J8" s="102" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="102"/>
@@ -4260,7 +4290,7 @@
       <c r="Q8" s="102"/>
       <c r="R8" s="102"/>
       <c r="S8" s="56"/>
-      <c r="V8" s="114"/>
+      <c r="V8" s="118"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="70">
@@ -4269,25 +4299,25 @@
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="113" t="s">
+        <v>391</v>
+      </c>
+      <c r="F9" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="G9" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="H9" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="I9" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="79" t="s">
+      <c r="J9" s="79" t="s">
         <v>198</v>
-      </c>
-      <c r="I9" s="79" t="s">
-        <v>199</v>
-      </c>
-      <c r="J9" s="79" t="s">
-        <v>200</v>
       </c>
       <c r="K9" s="79"/>
       <c r="L9" s="79"/>
@@ -4299,31 +4329,31 @@
       <c r="R9" s="79"/>
       <c r="S9" s="57"/>
       <c r="T9" s="78"/>
-      <c r="V9" s="114"/>
+      <c r="V9" s="118"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="71"/>
       <c r="C10" s="54"/>
       <c r="D10" s="103" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E10" s="103" t="s">
-        <v>266</v>
+        <v>393</v>
       </c>
       <c r="F10" s="103" t="s">
-        <v>268</v>
+        <v>353</v>
       </c>
       <c r="G10" s="103" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H10" s="103" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="I10" s="103" t="s">
-        <v>274</v>
+        <v>355</v>
       </c>
       <c r="J10" s="103" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="K10" s="103"/>
       <c r="L10" s="103"/>
@@ -4334,7 +4364,7 @@
       <c r="Q10" s="103"/>
       <c r="R10" s="103"/>
       <c r="S10" s="62"/>
-      <c r="V10" s="114"/>
+      <c r="V10" s="118"/>
     </row>
     <row r="11" spans="2:22" s="92" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="89"/>
@@ -4355,52 +4385,54 @@
       <c r="Q11" s="91"/>
       <c r="R11" s="91"/>
       <c r="S11" s="61"/>
-      <c r="V11" s="114"/>
+      <c r="V11" s="118"/>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="69"/>
       <c r="C12" s="54"/>
       <c r="D12" s="102" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E12" s="102" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="F12" s="102" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="G12" s="102" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="H12" s="102"/>
       <c r="I12" s="102" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="J12" s="102" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="K12" s="102"/>
       <c r="L12" s="102" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="M12" s="102" t="s">
-        <v>395</v>
-      </c>
-      <c r="N12" s="102"/>
+        <v>330</v>
+      </c>
+      <c r="N12" s="102" t="s">
+        <v>394</v>
+      </c>
       <c r="O12" s="102" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="P12" s="102" t="s">
-        <v>397</v>
+        <v>321</v>
       </c>
       <c r="Q12" s="102" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="R12" s="102" t="s">
-        <v>399</v>
+        <v>331</v>
       </c>
       <c r="S12" s="56"/>
-      <c r="V12" s="114"/>
+      <c r="V12" s="118"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="70">
@@ -4409,94 +4441,96 @@
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="79" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="79" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="E13" s="79" t="s">
+      <c r="G13" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="F13" s="79" t="s">
+      <c r="H13" s="79" t="s">
         <v>203</v>
       </c>
-      <c r="G13" s="79" t="s">
+      <c r="I13" s="79" t="s">
+        <v>198</v>
+      </c>
+      <c r="J13" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="H13" s="79" t="s">
+      <c r="K13" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="I13" s="79" t="s">
-        <v>200</v>
-      </c>
-      <c r="J13" s="79" t="s">
+      <c r="L13" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="K13" s="79" t="s">
+      <c r="M13" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="L13" s="79" t="s">
+      <c r="N13" s="113" t="s">
         <v>208</v>
       </c>
-      <c r="M13" s="79" t="s">
+      <c r="O13" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="N13" s="79" t="s">
+      <c r="P13" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="O13" s="79" t="s">
+      <c r="Q13" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="P13" s="79" t="s">
+      <c r="R13" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="Q13" s="79" t="s">
-        <v>213</v>
-      </c>
-      <c r="R13" s="79" t="s">
-        <v>214</v>
-      </c>
       <c r="S13" s="57"/>
-      <c r="V13" s="115"/>
+      <c r="V13" s="119"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="71"/>
       <c r="C14" s="54"/>
-      <c r="D14" s="103" t="s">
-        <v>278</v>
-      </c>
-      <c r="E14" s="103" t="s">
-        <v>280</v>
-      </c>
-      <c r="F14" s="103" t="s">
-        <v>282</v>
-      </c>
-      <c r="G14" s="103" t="s">
-        <v>313</v>
-      </c>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103" t="s">
-        <v>276</v>
-      </c>
-      <c r="J14" s="103" t="s">
-        <v>315</v>
-      </c>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103" t="s">
-        <v>317</v>
-      </c>
-      <c r="M14" s="103" t="s">
-        <v>396</v>
-      </c>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103" t="s">
+      <c r="D14" s="112" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="112" t="s">
+        <v>326</v>
+      </c>
+      <c r="F14" s="112" t="s">
+        <v>268</v>
+      </c>
+      <c r="G14" s="112" t="s">
+        <v>292</v>
+      </c>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112" t="s">
+        <v>263</v>
+      </c>
+      <c r="J14" s="112" t="s">
+        <v>327</v>
+      </c>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112" t="s">
+        <v>329</v>
+      </c>
+      <c r="M14" s="112" t="s">
+        <v>320</v>
+      </c>
+      <c r="N14" s="112" t="s">
+        <v>395</v>
+      </c>
+      <c r="O14" s="112" t="s">
+        <v>356</v>
+      </c>
+      <c r="P14" s="116" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q14" s="112" t="s">
+        <v>309</v>
+      </c>
+      <c r="R14" s="112" t="s">
         <v>357</v>
-      </c>
-      <c r="P14" s="103" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q14" s="103" t="s">
-        <v>363</v>
-      </c>
-      <c r="R14" s="103" t="s">
-        <v>400</v>
       </c>
       <c r="S14" s="62"/>
       <c r="V14" s="75"/>
@@ -4526,47 +4560,47 @@
       <c r="B16" s="69"/>
       <c r="C16" s="54"/>
       <c r="D16" s="102" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="E16" s="102" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F16" s="102" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="G16" s="102" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="H16" s="102"/>
       <c r="I16" s="102" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="J16" s="102" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="K16" s="102" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="L16" s="102" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="M16" s="102" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="N16" s="102" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="O16" s="102" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="P16" s="102" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q16" s="102" t="s">
-        <v>334</v>
-      </c>
-      <c r="R16" s="102" t="s">
-        <v>336</v>
+        <v>368</v>
+      </c>
+      <c r="Q16" s="115" t="s">
+        <v>267</v>
+      </c>
+      <c r="R16" s="115" t="s">
+        <v>370</v>
       </c>
       <c r="S16" s="56"/>
       <c r="V16" s="75"/>
@@ -4578,49 +4612,49 @@
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="E17" s="79" t="s">
+      <c r="G17" s="113" t="s">
         <v>216</v>
       </c>
-      <c r="F17" s="79" t="s">
+      <c r="H17" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="I17" s="113" t="s">
         <v>217</v>
       </c>
-      <c r="G17" s="79" t="s">
+      <c r="J17" s="79" t="s">
         <v>218</v>
       </c>
-      <c r="H17" s="79" t="s">
-        <v>207</v>
-      </c>
-      <c r="I17" s="79" t="s">
+      <c r="K17" s="79" t="s">
         <v>219</v>
       </c>
-      <c r="J17" s="79" t="s">
+      <c r="L17" s="113" t="s">
         <v>220</v>
       </c>
-      <c r="K17" s="79" t="s">
+      <c r="M17" s="79" t="s">
+        <v>343</v>
+      </c>
+      <c r="N17" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="L17" s="79" t="s">
+      <c r="O17" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="M17" s="79" t="s">
+      <c r="P17" s="113" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q17" s="79" t="s">
         <v>223</v>
       </c>
-      <c r="N17" s="79" t="s">
-        <v>224</v>
-      </c>
-      <c r="O17" s="79" t="s">
-        <v>225</v>
-      </c>
-      <c r="P17" s="79" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q17" s="79" t="s">
-        <v>227</v>
-      </c>
-      <c r="R17" s="79" t="s">
-        <v>228</v>
+      <c r="R17" s="113" t="s">
+        <v>345</v>
       </c>
       <c r="S17" s="57"/>
       <c r="V17" s="75"/>
@@ -4628,48 +4662,48 @@
     <row r="18" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="71"/>
       <c r="C18" s="54"/>
-      <c r="D18" s="103" t="s">
-        <v>284</v>
-      </c>
-      <c r="E18" s="103" t="s">
-        <v>286</v>
-      </c>
-      <c r="F18" s="103" t="s">
-        <v>288</v>
-      </c>
-      <c r="G18" s="103" t="s">
-        <v>290</v>
-      </c>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103" t="s">
-        <v>319</v>
-      </c>
-      <c r="J18" s="103" t="s">
-        <v>321</v>
-      </c>
-      <c r="K18" s="103" t="s">
-        <v>323</v>
-      </c>
-      <c r="L18" s="103" t="s">
-        <v>325</v>
-      </c>
-      <c r="M18" s="103" t="s">
-        <v>327</v>
-      </c>
-      <c r="N18" s="103" t="s">
-        <v>329</v>
-      </c>
-      <c r="O18" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="P18" s="103" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q18" s="103" t="s">
-        <v>335</v>
-      </c>
-      <c r="R18" s="103" t="s">
-        <v>337</v>
+      <c r="D18" s="112" t="s">
+        <v>270</v>
+      </c>
+      <c r="E18" s="112" t="s">
+        <v>358</v>
+      </c>
+      <c r="F18" s="116" t="s">
+        <v>273</v>
+      </c>
+      <c r="G18" s="112" t="s">
+        <v>275</v>
+      </c>
+      <c r="H18" s="112"/>
+      <c r="I18" s="116" t="s">
+        <v>360</v>
+      </c>
+      <c r="J18" s="112" t="s">
+        <v>361</v>
+      </c>
+      <c r="K18" s="112" t="s">
+        <v>296</v>
+      </c>
+      <c r="L18" s="112" t="s">
+        <v>363</v>
+      </c>
+      <c r="M18" s="116" t="s">
+        <v>365</v>
+      </c>
+      <c r="N18" s="116" t="s">
+        <v>366</v>
+      </c>
+      <c r="O18" s="116" t="s">
+        <v>367</v>
+      </c>
+      <c r="P18" s="112" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q18" s="112" t="s">
+        <v>268</v>
+      </c>
+      <c r="R18" s="112" t="s">
+        <v>398</v>
       </c>
       <c r="S18" s="62"/>
       <c r="V18" s="75"/>
@@ -4678,7 +4712,7 @@
       <c r="B19" s="68"/>
       <c r="C19" s="59"/>
       <c r="D19" s="87" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E19" s="87"/>
       <c r="F19" s="87"/>
@@ -4701,43 +4735,43 @@
       <c r="B20" s="69"/>
       <c r="C20" s="54"/>
       <c r="D20" s="102" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="E20" s="102" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="F20" s="102"/>
       <c r="G20" s="102" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="H20" s="102" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="I20" s="102"/>
       <c r="J20" s="102" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="K20" s="102" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="L20" s="102" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="M20" s="102" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="N20" s="102"/>
       <c r="O20" s="102" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="P20" s="102" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="Q20" s="102" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="R20" s="102" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="S20" s="56"/>
       <c r="V20" s="75"/>
@@ -4749,49 +4783,49 @@
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="79" t="s">
+        <v>225</v>
+      </c>
+      <c r="F21" s="79" t="s">
+        <v>226</v>
+      </c>
+      <c r="G21" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="H21" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="I21" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="K21" s="79" t="s">
         <v>229</v>
       </c>
-      <c r="E21" s="79" t="s">
+      <c r="L21" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="F21" s="79" t="s">
+      <c r="M21" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="N21" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="O21" s="113" t="s">
         <v>231</v>
       </c>
-      <c r="G21" s="79" t="s">
+      <c r="P21" s="79" t="s">
         <v>232</v>
       </c>
-      <c r="H21" s="79" t="s">
-        <v>206</v>
-      </c>
-      <c r="I21" s="79" t="s">
-        <v>207</v>
-      </c>
-      <c r="J21" s="79" t="s">
+      <c r="Q21" s="79" t="s">
         <v>233</v>
       </c>
-      <c r="K21" s="79" t="s">
+      <c r="R21" s="79" t="s">
         <v>234</v>
-      </c>
-      <c r="L21" s="79" t="s">
-        <v>235</v>
-      </c>
-      <c r="M21" s="79" t="s">
-        <v>206</v>
-      </c>
-      <c r="N21" s="79" t="s">
-        <v>207</v>
-      </c>
-      <c r="O21" s="79" t="s">
-        <v>236</v>
-      </c>
-      <c r="P21" s="79" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q21" s="79" t="s">
-        <v>238</v>
-      </c>
-      <c r="R21" s="79" t="s">
-        <v>239</v>
       </c>
       <c r="S21" s="57"/>
       <c r="V21" s="75"/>
@@ -4799,44 +4833,44 @@
     <row r="22" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="71"/>
       <c r="C22" s="54"/>
-      <c r="D22" s="103" t="s">
-        <v>292</v>
-      </c>
-      <c r="E22" s="103" t="s">
-        <v>294</v>
-      </c>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103" t="s">
-        <v>339</v>
-      </c>
-      <c r="H22" s="103" t="s">
-        <v>315</v>
-      </c>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103" t="s">
-        <v>341</v>
-      </c>
-      <c r="K22" s="103" t="s">
-        <v>343</v>
-      </c>
-      <c r="L22" s="103" t="s">
-        <v>345</v>
-      </c>
-      <c r="M22" s="103" t="s">
-        <v>315</v>
-      </c>
-      <c r="N22" s="103"/>
-      <c r="O22" s="103" t="s">
-        <v>347</v>
-      </c>
-      <c r="P22" s="103" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q22" s="103" t="s">
-        <v>351</v>
-      </c>
-      <c r="R22" s="103" t="s">
-        <v>353</v>
+      <c r="D22" s="112" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" s="112" t="s">
+        <v>371</v>
+      </c>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112" t="s">
+        <v>373</v>
+      </c>
+      <c r="H22" s="112" t="s">
+        <v>327</v>
+      </c>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112" t="s">
+        <v>374</v>
+      </c>
+      <c r="K22" s="112" t="s">
+        <v>375</v>
+      </c>
+      <c r="L22" s="112" t="s">
+        <v>334</v>
+      </c>
+      <c r="M22" s="112" t="s">
+        <v>327</v>
+      </c>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112" t="s">
+        <v>377</v>
+      </c>
+      <c r="P22" s="112" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q22" s="112" t="s">
+        <v>302</v>
+      </c>
+      <c r="R22" s="112" t="s">
+        <v>304</v>
       </c>
       <c r="S22" s="62"/>
       <c r="V22" s="75"/>
@@ -4867,42 +4901,44 @@
       <c r="C24" s="54"/>
       <c r="D24" s="102"/>
       <c r="E24" s="102" t="s">
-        <v>354</v>
-      </c>
-      <c r="F24" s="102"/>
+        <v>305</v>
+      </c>
+      <c r="F24" s="102" t="s">
+        <v>394</v>
+      </c>
       <c r="G24" s="102" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="H24" s="102" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="I24" s="102" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="J24" s="102" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="K24" s="102" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="L24" s="102"/>
       <c r="M24" s="102" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="N24" s="102" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="O24" s="102" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="P24" s="102" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q24" s="102" t="s">
-        <v>366</v>
+        <v>310</v>
+      </c>
+      <c r="Q24" s="115" t="s">
+        <v>380</v>
       </c>
       <c r="R24" s="102" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="S24" s="56"/>
       <c r="V24" s="75"/>
@@ -4914,49 +4950,49 @@
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="79" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E25" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" s="113" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25" s="79" t="s">
+        <v>218</v>
+      </c>
+      <c r="I25" s="113" t="s">
+        <v>236</v>
+      </c>
+      <c r="J25" s="79" t="s">
+        <v>237</v>
+      </c>
+      <c r="K25" s="79" t="s">
+        <v>230</v>
+      </c>
+      <c r="L25" s="79" t="s">
+        <v>226</v>
+      </c>
+      <c r="M25" s="79" t="s">
+        <v>238</v>
+      </c>
+      <c r="N25" s="79" t="s">
+        <v>239</v>
+      </c>
+      <c r="O25" s="79" t="s">
+        <v>236</v>
+      </c>
+      <c r="P25" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="F25" s="79" t="s">
-        <v>210</v>
-      </c>
-      <c r="G25" s="79" t="s">
-        <v>211</v>
-      </c>
-      <c r="H25" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="I25" s="79" t="s">
+      <c r="Q25" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="J25" s="79" t="s">
-        <v>242</v>
-      </c>
-      <c r="K25" s="79" t="s">
-        <v>235</v>
-      </c>
-      <c r="L25" s="79" t="s">
-        <v>231</v>
-      </c>
-      <c r="M25" s="79" t="s">
-        <v>243</v>
-      </c>
-      <c r="N25" s="79" t="s">
-        <v>244</v>
-      </c>
-      <c r="O25" s="79" t="s">
-        <v>241</v>
-      </c>
-      <c r="P25" s="79" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q25" s="79" t="s">
-        <v>246</v>
-      </c>
       <c r="R25" s="79" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S25" s="57"/>
       <c r="T25" s="50"/>
@@ -4966,44 +5002,46 @@
     <row r="26" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="71"/>
       <c r="C26" s="54"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103" t="s">
+      <c r="D26" s="112"/>
+      <c r="E26" s="112" t="s">
+        <v>399</v>
+      </c>
+      <c r="F26" s="112" t="s">
+        <v>395</v>
+      </c>
+      <c r="G26" s="112" t="s">
+        <v>356</v>
+      </c>
+      <c r="H26" s="112" t="s">
+        <v>361</v>
+      </c>
+      <c r="I26" s="112" t="s">
+        <v>335</v>
+      </c>
+      <c r="J26" s="112" t="s">
+        <v>280</v>
+      </c>
+      <c r="K26" s="112" t="s">
+        <v>334</v>
+      </c>
+      <c r="L26" s="112"/>
+      <c r="M26" s="112" t="s">
+        <v>337</v>
+      </c>
+      <c r="N26" s="112" t="s">
+        <v>309</v>
+      </c>
+      <c r="O26" s="112" t="s">
+        <v>335</v>
+      </c>
+      <c r="P26" s="116" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q26" s="112" t="s">
+        <v>381</v>
+      </c>
+      <c r="R26" s="112" t="s">
         <v>355</v>
-      </c>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103" t="s">
-        <v>357</v>
-      </c>
-      <c r="H26" s="103" t="s">
-        <v>321</v>
-      </c>
-      <c r="I26" s="103" t="s">
-        <v>359</v>
-      </c>
-      <c r="J26" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="K26" s="103" t="s">
-        <v>345</v>
-      </c>
-      <c r="L26" s="103"/>
-      <c r="M26" s="103" t="s">
-        <v>361</v>
-      </c>
-      <c r="N26" s="103" t="s">
-        <v>363</v>
-      </c>
-      <c r="O26" s="103" t="s">
-        <v>359</v>
-      </c>
-      <c r="P26" s="103" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q26" s="103" t="s">
-        <v>367</v>
-      </c>
-      <c r="R26" s="103" t="s">
-        <v>274</v>
       </c>
       <c r="S26" s="62"/>
       <c r="V26" s="75"/>
@@ -5035,43 +5073,43 @@
       <c r="B28" s="69"/>
       <c r="C28" s="1"/>
       <c r="D28" s="102" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="E28" s="102" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="F28" s="102"/>
       <c r="G28" s="102" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="H28" s="102" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="I28" s="102" t="s">
-        <v>374</v>
-      </c>
-      <c r="J28" s="102" t="s">
-        <v>376</v>
+        <v>396</v>
+      </c>
+      <c r="J28" s="115" t="s">
+        <v>380</v>
       </c>
       <c r="K28" s="102"/>
-      <c r="L28" s="102" t="s">
-        <v>377</v>
+      <c r="L28" s="115" t="s">
+        <v>383</v>
       </c>
       <c r="M28" s="102" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="N28" s="102" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="O28" s="102"/>
       <c r="P28" s="102" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="Q28" s="102" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="R28" s="102" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="S28" s="56"/>
       <c r="T28" s="1"/>
@@ -5083,49 +5121,49 @@
         <v>7</v>
       </c>
       <c r="D29" s="79" t="s">
+        <v>237</v>
+      </c>
+      <c r="E29" s="79" t="s">
         <v>242</v>
       </c>
-      <c r="E29" s="79" t="s">
+      <c r="F29" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" s="79" t="s">
+        <v>243</v>
+      </c>
+      <c r="H29" s="79" t="s">
+        <v>244</v>
+      </c>
+      <c r="I29" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="J29" s="113" t="s">
+        <v>346</v>
+      </c>
+      <c r="K29" s="79" t="s">
+        <v>226</v>
+      </c>
+      <c r="L29" s="113" t="s">
+        <v>246</v>
+      </c>
+      <c r="M29" s="79" t="s">
+        <v>230</v>
+      </c>
+      <c r="N29" s="79" t="s">
+        <v>347</v>
+      </c>
+      <c r="O29" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="P29" s="79" t="s">
         <v>247</v>
       </c>
-      <c r="F29" s="79" t="s">
-        <v>207</v>
-      </c>
-      <c r="G29" s="79" t="s">
-        <v>248</v>
-      </c>
-      <c r="H29" s="79" t="s">
-        <v>249</v>
-      </c>
-      <c r="I29" s="79" t="s">
-        <v>250</v>
-      </c>
-      <c r="J29" s="79" t="s">
-        <v>251</v>
-      </c>
-      <c r="K29" s="79" t="s">
-        <v>231</v>
-      </c>
-      <c r="L29" s="79" t="s">
-        <v>252</v>
-      </c>
-      <c r="M29" s="79" t="s">
-        <v>235</v>
-      </c>
-      <c r="N29" s="79" t="s">
-        <v>253</v>
-      </c>
-      <c r="O29" s="79" t="s">
-        <v>207</v>
-      </c>
-      <c r="P29" s="79" t="s">
-        <v>254</v>
-      </c>
       <c r="Q29" s="79" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="R29" s="79" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="S29" s="57"/>
       <c r="T29" s="50"/>
@@ -5136,43 +5174,43 @@
       <c r="B30" s="73"/>
       <c r="C30" s="52"/>
       <c r="D30" s="103" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="E30" s="103" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="F30" s="103"/>
       <c r="G30" s="103" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="H30" s="103" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="I30" s="103" t="s">
-        <v>375</v>
-      </c>
-      <c r="J30" s="103" t="s">
-        <v>367</v>
+        <v>397</v>
+      </c>
+      <c r="J30" s="114" t="s">
+        <v>381</v>
       </c>
       <c r="K30" s="103"/>
-      <c r="L30" s="103" t="s">
-        <v>378</v>
+      <c r="L30" s="114" t="s">
+        <v>384</v>
       </c>
       <c r="M30" s="103" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="N30" s="103" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="O30" s="103"/>
       <c r="P30" s="103" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Q30" s="103" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="R30" s="103" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="S30" s="58"/>
       <c r="V30" s="75"/>
@@ -5206,26 +5244,26 @@
       <c r="C32" s="1"/>
       <c r="D32" s="102"/>
       <c r="E32" s="102" t="s">
-        <v>383</v>
+        <v>316</v>
       </c>
       <c r="F32" s="102" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="G32" s="102" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="H32" s="102"/>
       <c r="I32" s="102" t="s">
-        <v>387</v>
+        <v>318</v>
       </c>
       <c r="J32" s="102" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="K32" s="102" t="s">
-        <v>391</v>
-      </c>
-      <c r="L32" s="102" t="s">
-        <v>393</v>
+        <v>319</v>
+      </c>
+      <c r="L32" s="115" t="s">
+        <v>341</v>
       </c>
       <c r="M32" s="102"/>
       <c r="N32" s="102"/>
@@ -5243,34 +5281,34 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="79" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E33" s="79" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F33" s="79" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G33" s="79" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H33" s="79" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I33" s="79" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J33" s="79" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="K33" s="79" t="s">
-        <v>259</v>
-      </c>
-      <c r="L33" s="79" t="s">
-        <v>260</v>
+        <v>252</v>
+      </c>
+      <c r="L33" s="113" t="s">
+        <v>348</v>
       </c>
       <c r="M33" s="79" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N33" s="79"/>
       <c r="O33" s="79"/>
@@ -5283,35 +5321,35 @@
     <row r="34" spans="2:20" ht="36" customHeight="1">
       <c r="B34" s="73"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103" t="s">
-        <v>384</v>
-      </c>
-      <c r="F34" s="103" t="s">
-        <v>386</v>
-      </c>
-      <c r="G34" s="103" t="s">
-        <v>369</v>
-      </c>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103" t="s">
+      <c r="D34" s="112"/>
+      <c r="E34" s="112" t="s">
+        <v>317</v>
+      </c>
+      <c r="F34" s="116" t="s">
+        <v>340</v>
+      </c>
+      <c r="G34" s="112" t="s">
+        <v>312</v>
+      </c>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112" t="s">
         <v>388</v>
       </c>
-      <c r="J34" s="103" t="s">
-        <v>390</v>
-      </c>
-      <c r="K34" s="103" t="s">
-        <v>392</v>
-      </c>
-      <c r="L34" s="103" t="s">
-        <v>394</v>
-      </c>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="103"/>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="103"/>
+      <c r="J34" s="112" t="s">
+        <v>389</v>
+      </c>
+      <c r="K34" s="112" t="s">
+        <v>342</v>
+      </c>
+      <c r="L34" s="116" t="s">
+        <v>389</v>
+      </c>
+      <c r="M34" s="112"/>
+      <c r="N34" s="112"/>
+      <c r="O34" s="112"/>
+      <c r="P34" s="112"/>
+      <c r="Q34" s="112"/>
+      <c r="R34" s="112"/>
       <c r="S34" s="62"/>
       <c r="T34" s="1"/>
     </row>
@@ -5840,7 +5878,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="120" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -5858,7 +5896,7 @@
       <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="116" t="s">
+      <c r="I5" s="120" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="7" t="s">
@@ -5883,7 +5921,7 @@
       <c r="R5" s="11"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="117"/>
+      <c r="B6" s="121"/>
       <c r="C6" s="12" t="s">
         <v>16</v>
       </c>
@@ -5903,7 +5941,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="117"/>
+      <c r="I6" s="121"/>
       <c r="J6" s="12" t="s">
         <v>17</v>
       </c>
@@ -5925,7 +5963,7 @@
       <c r="Q6" s="15"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="117"/>
+      <c r="B7" s="121"/>
       <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
@@ -5941,7 +5979,7 @@
       <c r="G7" s="17">
         <v>30</v>
       </c>
-      <c r="I7" s="117"/>
+      <c r="I7" s="121"/>
       <c r="J7" s="16" t="s">
         <v>22</v>
       </c>
@@ -5963,7 +6001,7 @@
       <c r="Q7" s="15"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="117"/>
+      <c r="B8" s="121"/>
       <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
@@ -5979,7 +6017,7 @@
       <c r="G8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="117"/>
+      <c r="I8" s="121"/>
       <c r="J8" s="19" t="s">
         <v>24</v>
       </c>
@@ -6001,7 +6039,7 @@
       <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="117"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="12" t="s">
         <v>33</v>
       </c>
@@ -6017,7 +6055,7 @@
       <c r="G9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="117"/>
+      <c r="I9" s="121"/>
       <c r="J9" s="12" t="s">
         <v>33</v>
       </c>
@@ -6039,7 +6077,7 @@
       <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="118"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="12" t="s">
         <v>38</v>
       </c>
@@ -6055,7 +6093,7 @@
       <c r="G10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="118"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="12" t="s">
         <v>43</v>
       </c>
@@ -6078,7 +6116,7 @@
       <c r="R10" s="29"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="120" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -6096,7 +6134,7 @@
       <c r="G11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="116" t="s">
+      <c r="I11" s="120" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="7" t="s">
@@ -6120,7 +6158,7 @@
       <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="117"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="12" t="s">
         <v>16</v>
       </c>
@@ -6140,7 +6178,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="117"/>
+      <c r="I12" s="121"/>
       <c r="J12" s="12" t="s">
         <v>17</v>
       </c>
@@ -6160,7 +6198,7 @@
       <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="117"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="16" t="s">
         <v>22</v>
       </c>
@@ -6174,7 +6212,7 @@
       <c r="G13" s="17">
         <v>50</v>
       </c>
-      <c r="I13" s="117"/>
+      <c r="I13" s="121"/>
       <c r="J13" s="16" t="s">
         <v>22</v>
       </c>
@@ -6194,7 +6232,7 @@
       <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="117"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="12" t="s">
         <v>24</v>
       </c>
@@ -6208,7 +6246,7 @@
       <c r="G14" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="117"/>
+      <c r="I14" s="121"/>
       <c r="J14" s="12" t="s">
         <v>24</v>
       </c>
@@ -6228,7 +6266,7 @@
       <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="117"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="12" t="s">
         <v>33</v>
       </c>
@@ -6242,7 +6280,7 @@
       <c r="G15" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="117"/>
+      <c r="I15" s="121"/>
       <c r="J15" s="12" t="s">
         <v>33</v>
       </c>
@@ -6262,7 +6300,7 @@
       <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="118"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="12" t="s">
         <v>38</v>
       </c>
@@ -6276,7 +6314,7 @@
       <c r="G16" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="118"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="12" t="s">
         <v>43</v>
       </c>

--- a/output2/【河洛話注音】金剛般若波羅蜜經001。法會因由分第一.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經001。法會因由分第一.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23ADA464-9AAE-4AFF-B6E6-8B783DD4E574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC78B48A-8819-46F8-9784-C0FE37647AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -1519,10 +1519,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tua7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pi2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1544,14 +1540,6 @@
   </si>
   <si>
     <t>i1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧˊ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1787,10 +1775,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㄨㄚ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>khiu1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1940,6 +1924,22 @@
   </si>
   <si>
     <t>ㆢ一ㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄞ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧˊ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3948,7 +3948,7 @@
         <v>166</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -4009,9 +4009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="A2:V58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -4140,7 +4138,7 @@
         <v>285</v>
       </c>
       <c r="J4" s="102" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K4" s="102" t="s">
         <v>288</v>
@@ -4180,7 +4178,7 @@
         <v>189</v>
       </c>
       <c r="J5" s="113" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K5" s="79" t="s">
         <v>190</v>
@@ -4204,16 +4202,16 @@
       <c r="C6" s="52"/>
       <c r="D6" s="112"/>
       <c r="E6" s="112" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F6" s="112" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G6" s="112" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H6" s="112" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I6" s="112" t="s">
         <v>286</v>
@@ -4225,7 +4223,7 @@
         <v>289</v>
       </c>
       <c r="L6" s="112" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M6" s="112"/>
       <c r="N6" s="112"/>
@@ -4264,7 +4262,7 @@
         <v>255</v>
       </c>
       <c r="E8" s="102" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F8" s="102" t="s">
         <v>257</v>
@@ -4302,7 +4300,7 @@
         <v>193</v>
       </c>
       <c r="E9" s="113" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F9" s="79" t="s">
         <v>194</v>
@@ -4338,19 +4336,19 @@
         <v>256</v>
       </c>
       <c r="E10" s="103" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F10" s="103" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G10" s="103" t="s">
         <v>259</v>
       </c>
       <c r="H10" s="103" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I10" s="103" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="J10" s="103" t="s">
         <v>263</v>
@@ -4411,25 +4409,25 @@
       </c>
       <c r="K12" s="102"/>
       <c r="L12" s="102" t="s">
+        <v>325</v>
+      </c>
+      <c r="M12" s="102" t="s">
+        <v>327</v>
+      </c>
+      <c r="N12" s="102" t="s">
+        <v>390</v>
+      </c>
+      <c r="O12" s="102" t="s">
+        <v>303</v>
+      </c>
+      <c r="P12" s="102" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q12" s="102" t="s">
+        <v>305</v>
+      </c>
+      <c r="R12" s="102" t="s">
         <v>328</v>
-      </c>
-      <c r="M12" s="102" t="s">
-        <v>330</v>
-      </c>
-      <c r="N12" s="102" t="s">
-        <v>394</v>
-      </c>
-      <c r="O12" s="102" t="s">
-        <v>306</v>
-      </c>
-      <c r="P12" s="102" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q12" s="102" t="s">
-        <v>308</v>
-      </c>
-      <c r="R12" s="102" t="s">
-        <v>331</v>
       </c>
       <c r="S12" s="56"/>
       <c r="V12" s="118"/>
@@ -4495,7 +4493,7 @@
         <v>265</v>
       </c>
       <c r="E14" s="112" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F14" s="112" t="s">
         <v>268</v>
@@ -4508,29 +4506,29 @@
         <v>263</v>
       </c>
       <c r="J14" s="112" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K14" s="112"/>
       <c r="L14" s="112" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M14" s="112" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N14" s="112" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="O14" s="112" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P14" s="116" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Q14" s="112" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="R14" s="112" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="S14" s="62"/>
       <c r="V14" s="75"/>
@@ -4573,34 +4571,34 @@
       </c>
       <c r="H16" s="102"/>
       <c r="I16" s="102" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J16" s="102" t="s">
+        <v>396</v>
+      </c>
+      <c r="K16" s="102" t="s">
         <v>294</v>
       </c>
-      <c r="K16" s="102" t="s">
-        <v>295</v>
-      </c>
       <c r="L16" s="102" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M16" s="102" t="s">
+        <v>360</v>
+      </c>
+      <c r="N16" s="102" t="s">
+        <v>329</v>
+      </c>
+      <c r="O16" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="P16" s="102" t="s">
         <v>364</v>
-      </c>
-      <c r="N16" s="102" t="s">
-        <v>332</v>
-      </c>
-      <c r="O16" s="102" t="s">
-        <v>297</v>
-      </c>
-      <c r="P16" s="102" t="s">
-        <v>368</v>
       </c>
       <c r="Q16" s="115" t="s">
         <v>267</v>
       </c>
       <c r="R16" s="115" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="S16" s="56"/>
       <c r="V16" s="75"/>
@@ -4639,7 +4637,7 @@
         <v>220</v>
       </c>
       <c r="M17" s="79" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N17" s="79" t="s">
         <v>221</v>
@@ -4648,13 +4646,13 @@
         <v>222</v>
       </c>
       <c r="P17" s="113" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Q17" s="79" t="s">
         <v>223</v>
       </c>
       <c r="R17" s="113" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="S17" s="57"/>
       <c r="V17" s="75"/>
@@ -4666,7 +4664,7 @@
         <v>270</v>
       </c>
       <c r="E18" s="112" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F18" s="116" t="s">
         <v>273</v>
@@ -4676,34 +4674,34 @@
       </c>
       <c r="H18" s="112"/>
       <c r="I18" s="116" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J18" s="112" t="s">
+        <v>397</v>
+      </c>
+      <c r="K18" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="L18" s="112" t="s">
+        <v>359</v>
+      </c>
+      <c r="M18" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="K18" s="112" t="s">
-        <v>296</v>
-      </c>
-      <c r="L18" s="112" t="s">
+      <c r="N18" s="116" t="s">
+        <v>362</v>
+      </c>
+      <c r="O18" s="116" t="s">
         <v>363</v>
       </c>
-      <c r="M18" s="116" t="s">
+      <c r="P18" s="112" t="s">
         <v>365</v>
-      </c>
-      <c r="N18" s="116" t="s">
-        <v>366</v>
-      </c>
-      <c r="O18" s="116" t="s">
-        <v>367</v>
-      </c>
-      <c r="P18" s="112" t="s">
-        <v>369</v>
       </c>
       <c r="Q18" s="112" t="s">
         <v>268</v>
       </c>
       <c r="R18" s="112" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="S18" s="62"/>
       <c r="V18" s="75"/>
@@ -4742,36 +4740,36 @@
       </c>
       <c r="F20" s="102"/>
       <c r="G20" s="102" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H20" s="102" t="s">
         <v>293</v>
       </c>
       <c r="I20" s="102"/>
       <c r="J20" s="102" t="s">
+        <v>297</v>
+      </c>
+      <c r="K20" s="102" t="s">
+        <v>330</v>
+      </c>
+      <c r="L20" s="102" t="s">
         <v>298</v>
-      </c>
-      <c r="K20" s="102" t="s">
-        <v>333</v>
-      </c>
-      <c r="L20" s="102" t="s">
-        <v>299</v>
       </c>
       <c r="M20" s="102" t="s">
         <v>293</v>
       </c>
       <c r="N20" s="102"/>
       <c r="O20" s="102" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="P20" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q20" s="102" t="s">
+        <v>398</v>
+      </c>
+      <c r="R20" s="102" t="s">
         <v>300</v>
-      </c>
-      <c r="Q20" s="102" t="s">
-        <v>301</v>
-      </c>
-      <c r="R20" s="102" t="s">
-        <v>303</v>
       </c>
       <c r="S20" s="56"/>
       <c r="V20" s="75"/>
@@ -4837,40 +4835,40 @@
         <v>277</v>
       </c>
       <c r="E22" s="112" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F22" s="112"/>
       <c r="G22" s="112" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H22" s="112" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I22" s="112"/>
       <c r="J22" s="112" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K22" s="112" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L22" s="112" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M22" s="112" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N22" s="112"/>
       <c r="O22" s="112" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P22" s="112" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q22" s="112" t="s">
-        <v>302</v>
+        <v>399</v>
       </c>
       <c r="R22" s="112" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="S22" s="62"/>
       <c r="V22" s="75"/>
@@ -4901,41 +4899,41 @@
       <c r="C24" s="54"/>
       <c r="D24" s="102"/>
       <c r="E24" s="102" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F24" s="102" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G24" s="102" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H24" s="102" t="s">
-        <v>294</v>
+        <v>396</v>
       </c>
       <c r="I24" s="102" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J24" s="102" t="s">
         <v>279</v>
       </c>
       <c r="K24" s="102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L24" s="102"/>
       <c r="M24" s="102" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N24" s="102" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O24" s="102" t="s">
+        <v>304</v>
+      </c>
+      <c r="P24" s="102" t="s">
         <v>307</v>
       </c>
-      <c r="P24" s="102" t="s">
-        <v>310</v>
-      </c>
       <c r="Q24" s="115" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="R24" s="102" t="s">
         <v>261</v>
@@ -5004,44 +5002,44 @@
       <c r="C26" s="54"/>
       <c r="D26" s="112"/>
       <c r="E26" s="112" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F26" s="112" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G26" s="112" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H26" s="112" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="I26" s="112" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J26" s="112" t="s">
         <v>280</v>
       </c>
       <c r="K26" s="112" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L26" s="112"/>
       <c r="M26" s="112" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N26" s="112" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="O26" s="112" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P26" s="116" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Q26" s="112" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="R26" s="112" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="S26" s="62"/>
       <c r="V26" s="75"/>
@@ -5076,40 +5074,40 @@
         <v>279</v>
       </c>
       <c r="E28" s="102" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F28" s="102"/>
       <c r="G28" s="102" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H28" s="102" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I28" s="102" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="J28" s="115" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K28" s="102"/>
       <c r="L28" s="115" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M28" s="102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N28" s="102" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="O28" s="102"/>
       <c r="P28" s="102" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q28" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="R28" s="102" t="s">
         <v>300</v>
-      </c>
-      <c r="R28" s="102" t="s">
-        <v>303</v>
       </c>
       <c r="S28" s="56"/>
       <c r="T28" s="1"/>
@@ -5139,7 +5137,7 @@
         <v>245</v>
       </c>
       <c r="J29" s="113" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K29" s="79" t="s">
         <v>226</v>
@@ -5151,7 +5149,7 @@
         <v>230</v>
       </c>
       <c r="N29" s="79" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="O29" s="79" t="s">
         <v>205</v>
@@ -5177,40 +5175,40 @@
         <v>280</v>
       </c>
       <c r="E30" s="103" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F30" s="103"/>
       <c r="G30" s="103" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H30" s="103" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I30" s="103" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J30" s="114" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K30" s="103"/>
       <c r="L30" s="114" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M30" s="103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="N30" s="103" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="O30" s="103"/>
       <c r="P30" s="103" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q30" s="103" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="R30" s="103" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="S30" s="58"/>
       <c r="V30" s="75"/>
@@ -5244,26 +5242,26 @@
       <c r="C32" s="1"/>
       <c r="D32" s="102"/>
       <c r="E32" s="102" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F32" s="102" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G32" s="102" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H32" s="102"/>
       <c r="I32" s="102" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J32" s="102" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K32" s="102" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L32" s="115" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M32" s="102"/>
       <c r="N32" s="102"/>
@@ -5305,7 +5303,7 @@
         <v>252</v>
       </c>
       <c r="L33" s="113" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M33" s="79" t="s">
         <v>226</v>
@@ -5323,26 +5321,26 @@
       <c r="C34" s="1"/>
       <c r="D34" s="112"/>
       <c r="E34" s="112" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F34" s="116" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G34" s="112" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H34" s="112"/>
       <c r="I34" s="112" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="J34" s="112" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K34" s="112" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L34" s="116" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M34" s="112"/>
       <c r="N34" s="112"/>

--- a/output2/【河洛話注音】金剛般若波羅蜜經001。法會因由分第一.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經001。法會因由分第一.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44E3F09A-8D73-469D-B7F8-B087BF6D814A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955B8E6E-0F37-4F06-AD3D-91AE1456B7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -2723,6 +2723,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -2741,9 +2744,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2751,55 +2751,7 @@
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{AF644068-9C78-42CD-96C0-AD9C8A3B8BDE}"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <b/>
@@ -3436,8 +3388,8 @@
   </sheetPr>
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -3477,8 +3429,8 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="str">
-        <f xml:space="preserve"> "金剛般若波羅蜜經" &amp; TEXT(C7, "000") &amp; _xlfn.CONCAT("。", 漢字注音!D5:R5)</f>
-        <v>金剛般若波羅蜜經001。法會因由分第一</v>
+        <f xml:space="preserve"> "金剛般若波羅蜜經" &amp; TEXT(C7, "000")</f>
+        <v>金剛般若波羅蜜經001</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -3501,7 +3453,7 @@
       <c r="B7" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="103">
+      <c r="C7" s="97">
         <v>1</v>
       </c>
     </row>
@@ -3544,7 +3496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -3602,7 +3554,7 @@
       <c r="Q3" s="83"/>
       <c r="R3" s="83"/>
       <c r="T3" s="92"/>
-      <c r="V3" s="97" t="s">
+      <c r="V3" s="98" t="s">
         <v>279</v>
       </c>
     </row>
@@ -3638,7 +3590,7 @@
       <c r="Q4" s="84"/>
       <c r="R4" s="84"/>
       <c r="S4" s="93"/>
-      <c r="V4" s="98"/>
+      <c r="V4" s="99"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="57">
@@ -3674,7 +3626,7 @@
       <c r="Q5" s="80"/>
       <c r="R5" s="80"/>
       <c r="S5" s="94"/>
-      <c r="V5" s="98"/>
+      <c r="V5" s="99"/>
     </row>
     <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
@@ -3709,7 +3661,7 @@
       <c r="Q6" s="85"/>
       <c r="R6" s="85"/>
       <c r="S6" s="95"/>
-      <c r="V6" s="98"/>
+      <c r="V6" s="99"/>
     </row>
     <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="55"/>
@@ -3730,7 +3682,7 @@
       <c r="Q7" s="83"/>
       <c r="R7" s="83"/>
       <c r="S7" s="66"/>
-      <c r="V7" s="98"/>
+      <c r="V7" s="99"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
@@ -3772,7 +3724,7 @@
         <v>230</v>
       </c>
       <c r="S8" s="93"/>
-      <c r="V8" s="98"/>
+      <c r="V8" s="99"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="57">
@@ -3826,7 +3778,7 @@
       </c>
       <c r="S9" s="94"/>
       <c r="T9" s="92"/>
-      <c r="V9" s="98"/>
+      <c r="V9" s="99"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
@@ -3868,7 +3820,7 @@
         <v>231</v>
       </c>
       <c r="S10" s="96"/>
-      <c r="V10" s="98"/>
+      <c r="V10" s="99"/>
     </row>
     <row r="11" spans="2:22" s="66" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="65"/>
@@ -3888,7 +3840,7 @@
       <c r="P11" s="83"/>
       <c r="Q11" s="83"/>
       <c r="R11" s="83"/>
-      <c r="V11" s="98"/>
+      <c r="V11" s="99"/>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
@@ -3936,7 +3888,7 @@
         <v>254</v>
       </c>
       <c r="S12" s="93"/>
-      <c r="V12" s="98"/>
+      <c r="V12" s="99"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="57">
@@ -3989,7 +3941,7 @@
         <v>304</v>
       </c>
       <c r="S13" s="94"/>
-      <c r="V13" s="98"/>
+      <c r="V13" s="99"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
@@ -4037,7 +3989,7 @@
         <v>255</v>
       </c>
       <c r="S14" s="96"/>
-      <c r="V14" s="98"/>
+      <c r="V14" s="99"/>
     </row>
     <row r="15" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="63"/>
@@ -4057,7 +4009,7 @@
       <c r="P15" s="83"/>
       <c r="Q15" s="83"/>
       <c r="R15" s="83"/>
-      <c r="V15" s="98"/>
+      <c r="V15" s="99"/>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
@@ -4101,7 +4053,7 @@
         <v>355</v>
       </c>
       <c r="S16" s="93"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="99"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="57">
@@ -4154,7 +4106,7 @@
         <v>313</v>
       </c>
       <c r="S17" s="94"/>
-      <c r="V17" s="98"/>
+      <c r="V17" s="99"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
@@ -4198,7 +4150,7 @@
         <v>356</v>
       </c>
       <c r="S18" s="96"/>
-      <c r="V18" s="98"/>
+      <c r="V18" s="99"/>
     </row>
     <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="63"/>
@@ -4218,7 +4170,7 @@
       <c r="P19" s="83"/>
       <c r="Q19" s="83"/>
       <c r="R19" s="83"/>
-      <c r="V19" s="98"/>
+      <c r="V19" s="99"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
@@ -4264,7 +4216,7 @@
         <v>226</v>
       </c>
       <c r="S20" s="93"/>
-      <c r="V20" s="98"/>
+      <c r="V20" s="99"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="57">
@@ -4317,7 +4269,7 @@
         <v>320</v>
       </c>
       <c r="S21" s="94"/>
-      <c r="V21" s="98"/>
+      <c r="V21" s="99"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
@@ -4363,7 +4315,7 @@
         <v>227</v>
       </c>
       <c r="S22" s="96"/>
-      <c r="V22" s="99"/>
+      <c r="V22" s="100"/>
     </row>
     <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="63"/>
@@ -9026,26 +8978,26 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="13" priority="363">
+    <cfRule type="expression" dxfId="9" priority="363">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="364">
+    <cfRule type="expression" dxfId="8" priority="364">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:R7 D11:R11 D15:R15 D23:R23 D31:R31 D39:R39 D47:R47 D51:R51 D59:R59 D63:R63 D67:R67 D75:R75 D79:R79 D83:R83 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D107:R107 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163 D19:R19 D27:R27 D35:R35 D43:R43 D55:R55 D71:R71">
-    <cfRule type="expression" dxfId="11" priority="7">
+  <conditionalFormatting sqref="D7:R7 D11:R11 D15:R15 D19:R19 D23:R23 D27:R27 D31:R31 D35:R35 D39:R39 D43:R43 D47:R47 D51:R51 D55:R55 D59:R59 D63:R63 D67:R67 D71:R71 D75:R75 D79:R79 D83:R83 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D107:R107 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9127,7 +9079,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -9145,7 +9097,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="100" t="s">
+      <c r="I5" s="101" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -9170,7 +9122,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="101"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -9190,7 +9142,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="101"/>
+      <c r="I6" s="102"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -9212,7 +9164,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="101"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -9228,7 +9180,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="101"/>
+      <c r="I7" s="102"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -9250,7 +9202,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="101"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -9266,7 +9218,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="101"/>
+      <c r="I8" s="102"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -9288,7 +9240,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="101"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -9304,7 +9256,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="101"/>
+      <c r="I9" s="102"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -9326,7 +9278,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="102"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -9342,7 +9294,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="102"/>
+      <c r="I10" s="103"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -9365,7 +9317,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="101" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -9383,7 +9335,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="100" t="s">
+      <c r="I11" s="101" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -9407,7 +9359,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="101"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -9427,7 +9379,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="101"/>
+      <c r="I12" s="102"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -9447,7 +9399,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="101"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -9461,7 +9413,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="101"/>
+      <c r="I13" s="102"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -9481,7 +9433,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="101"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -9495,7 +9447,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="101"/>
+      <c r="I14" s="102"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -9515,7 +9467,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="101"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -9529,7 +9481,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="101"/>
+      <c r="I15" s="102"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -9549,7 +9501,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="102"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -9563,7 +9515,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="102"/>
+      <c r="I16" s="103"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>

--- a/output2/【河洛話注音】金剛般若波羅蜜經001。法會因由分第一.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經001。法會因由分第一.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955B8E6E-0F37-4F06-AD3D-91AE1456B7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7B9F07-2234-4B0B-99F0-A7F1DE246CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="375">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1079,234 +1079,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ngoo2</t>
-  </si>
-  <si>
-    <t>ㄫㆦˋ</t>
-  </si>
-  <si>
-    <t>hun1</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄣˉ</t>
-  </si>
-  <si>
-    <t>te7</t>
-  </si>
-  <si>
-    <t>ㄉㆤ˫</t>
-  </si>
-  <si>
-    <t>sip8</t>
-  </si>
-  <si>
-    <t>ㄒ一ㆴ˙</t>
-  </si>
-  <si>
-    <t>ni2</t>
-  </si>
-  <si>
-    <t>ㄋㄧˋ</t>
-  </si>
-  <si>
-    <t>si5</t>
-  </si>
-  <si>
-    <t>ㄒㄧˊ</t>
-  </si>
-  <si>
-    <t>hut8</t>
-  </si>
-  <si>
-    <t>ㄏㄨㆵ˙</t>
-  </si>
-  <si>
-    <t>se3</t>
-  </si>
-  <si>
-    <t>ㄙㆤ˪</t>
-  </si>
-  <si>
-    <t>zun1</t>
-  </si>
-  <si>
-    <t>ㄗㄨㄣˉ</t>
-  </si>
-  <si>
-    <t>jin5</t>
-  </si>
-  <si>
-    <t>ㆢㄧㄣˊ</t>
-  </si>
-  <si>
-    <t>huat4</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄚㆵ</t>
-  </si>
-  <si>
-    <t>ki5</t>
-  </si>
-  <si>
-    <t>ㄍㄧˊ</t>
-  </si>
-  <si>
-    <t>ju5</t>
-  </si>
-  <si>
-    <t>ㆡㄨˊ</t>
-  </si>
-  <si>
-    <t>si6</t>
-  </si>
-  <si>
-    <t>ㄒㄧˋ</t>
-  </si>
-  <si>
-    <t>it4</t>
-  </si>
-  <si>
-    <t>ㄧㆵ</t>
-  </si>
-  <si>
-    <t>ziong3</t>
-  </si>
-  <si>
-    <t>ㄐㄧㆲ˪</t>
-  </si>
-  <si>
-    <t>i2</t>
-  </si>
-  <si>
-    <t>ㄧˋ</t>
-  </si>
-  <si>
-    <t>ji5</t>
-  </si>
-  <si>
-    <t>ㆢㄧˊ</t>
-  </si>
-  <si>
-    <t>sit8</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆵ˙</t>
-  </si>
-  <si>
-    <t>u5</t>
-  </si>
-  <si>
-    <t>ㄨˊ</t>
-  </si>
-  <si>
-    <t>u2</t>
-  </si>
-  <si>
-    <t>ㄨˋ</t>
-  </si>
-  <si>
-    <t>tiong1</t>
-  </si>
-  <si>
-    <t>ㄉㄧㆲˉ</t>
-  </si>
-  <si>
-    <t>tai7</t>
-  </si>
-  <si>
-    <t>ㄉㄞ˫</t>
-  </si>
-  <si>
-    <t>kok4</t>
-  </si>
-  <si>
-    <t>ㄍㆦㆻ</t>
-  </si>
-  <si>
-    <t>zai6</t>
-  </si>
-  <si>
-    <t>ㄗㄞˋ</t>
-  </si>
-  <si>
-    <t>cian1</t>
-  </si>
-  <si>
-    <t>ㄑㄧㄢˉ</t>
-  </si>
-  <si>
-    <t>in1</t>
-  </si>
-  <si>
-    <t>ㄧㄣˉ</t>
-  </si>
-  <si>
-    <t>ji7</t>
-  </si>
-  <si>
-    <t>ㆢㄧ˫</t>
-  </si>
-  <si>
-    <t>ziok4</t>
-  </si>
-  <si>
-    <t>ㄐㄧㆦㆻ</t>
-  </si>
-  <si>
-    <t>bun5</t>
-  </si>
-  <si>
-    <t>ㆠㄨㄣˊ</t>
-  </si>
-  <si>
-    <t>pi2</t>
-  </si>
-  <si>
-    <t>ㄅㄧˋ</t>
-  </si>
-  <si>
-    <t>zi3</t>
-  </si>
-  <si>
-    <t>ㄐㄧ˪</t>
-  </si>
-  <si>
-    <t>cu3</t>
-  </si>
-  <si>
-    <t>ㄘㄨ˪</t>
-  </si>
-  <si>
-    <t>siu1</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄨˉ</t>
-  </si>
-  <si>
-    <t>ci5</t>
-  </si>
-  <si>
-    <t>ㄑㄧˊ</t>
-  </si>
-  <si>
-    <t>pik4</t>
-  </si>
-  <si>
-    <t>ㄅㄧㆻ</t>
-  </si>
-  <si>
-    <t>huan5</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄢˊ</t>
-  </si>
-  <si>
-    <t>hu1</t>
-  </si>
-  <si>
-    <t>ㄏㄨˉ</t>
-  </si>
-  <si>
     <t>分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1357,24 +1129,6 @@
   <si>
     <t>於</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiok8</t>
-  </si>
-  <si>
-    <t>ㄉㄧㆦㆻ˙</t>
-  </si>
-  <si>
-    <t>zo7</t>
-  </si>
-  <si>
-    <t>ㄗㄜ˫</t>
-  </si>
-  <si>
-    <t>khiu1</t>
-  </si>
-  <si>
-    <t>ㄎㄧㄨˉ</t>
   </si>
   <si>
     <t>法會因由分第一
@@ -1602,118 +1356,492 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>huat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>hue7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄨㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngoo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄫㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsai6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄞˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ue7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄨㆤ˫</t>
-  </si>
-  <si>
-    <t>ciu7</t>
-  </si>
-  <si>
-    <t>ㄑㄧㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kip4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍ一ㆴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>koo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㆦˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tak8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄚㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄞ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khiu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄧㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsiong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒ一ㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ku1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ni2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>i1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>puat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄅㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆢ一ㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>siann5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧㆩˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>khit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄎㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pun2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄅㄨㄣˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>huan7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄨㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gut4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆣㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>se2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㆤˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsiok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tso7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄜ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3388,7 +3516,7 @@
   </sheetPr>
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -3496,7 +3624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -3555,31 +3683,31 @@
       <c r="R3" s="83"/>
       <c r="T3" s="92"/>
       <c r="V3" s="98" t="s">
-        <v>279</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="56"/>
       <c r="D4" s="84" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>335</v>
+        <v>255</v>
       </c>
       <c r="F4" s="84" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>337</v>
+        <v>259</v>
       </c>
       <c r="H4" s="84" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="I4" s="84" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
       <c r="J4" s="84" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="K4" s="84"/>
       <c r="L4" s="84"/>
@@ -3597,25 +3725,25 @@
         <v>1</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>280</v>
+        <v>198</v>
       </c>
       <c r="F5" s="80" t="s">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="G5" s="80" t="s">
-        <v>282</v>
+        <v>200</v>
       </c>
       <c r="H5" s="80" t="s">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="I5" s="80" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="J5" s="80" t="s">
-        <v>283</v>
+        <v>201</v>
       </c>
       <c r="K5" s="80"/>
       <c r="L5" s="80"/>
@@ -3632,25 +3760,25 @@
       <c r="B6" s="58"/>
       <c r="C6" s="87"/>
       <c r="D6" s="85" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="E6" s="85" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>338</v>
+        <v>260</v>
       </c>
       <c r="H6" s="85" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="I6" s="85" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="J6" s="85" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="K6" s="85"/>
       <c r="L6" s="85"/>
@@ -3689,39 +3817,39 @@
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
       <c r="F8" s="84" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>210</v>
+        <v>269</v>
       </c>
       <c r="H8" s="84" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="I8" s="84" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="J8" s="84"/>
       <c r="K8" s="84" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="L8" s="84" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
       <c r="M8" s="84"/>
       <c r="N8" s="84" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c r="O8" s="84" t="s">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="P8" s="84" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="Q8" s="84" t="s">
-        <v>341</v>
+        <v>283</v>
       </c>
       <c r="R8" s="84" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="S8" s="93"/>
       <c r="V8" s="99"/>
@@ -3732,49 +3860,49 @@
         <v>2</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>267</v>
+        <v>191</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="H9" s="80" t="s">
-        <v>284</v>
+        <v>202</v>
       </c>
       <c r="I9" s="80" t="s">
-        <v>285</v>
+        <v>203</v>
       </c>
       <c r="J9" s="80" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="K9" s="80" t="s">
-        <v>283</v>
+        <v>201</v>
       </c>
       <c r="L9" s="80" t="s">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="M9" s="80" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="N9" s="80" t="s">
-        <v>287</v>
+        <v>205</v>
       </c>
       <c r="O9" s="80" t="s">
-        <v>288</v>
+        <v>206</v>
       </c>
       <c r="P9" s="80" t="s">
-        <v>289</v>
+        <v>207</v>
       </c>
       <c r="Q9" s="80" t="s">
-        <v>290</v>
+        <v>208</v>
       </c>
       <c r="R9" s="80" t="s">
-        <v>291</v>
+        <v>209</v>
       </c>
       <c r="S9" s="94"/>
       <c r="T9" s="92"/>
@@ -3785,39 +3913,39 @@
       <c r="D10" s="85"/>
       <c r="E10" s="85"/>
       <c r="F10" s="85" t="s">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="G10" s="85" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="H10" s="85" t="s">
-        <v>185</v>
+        <v>272</v>
       </c>
       <c r="I10" s="85" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="J10" s="85"/>
       <c r="K10" s="85" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="L10" s="85" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="M10" s="85"/>
       <c r="N10" s="85" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="O10" s="85" t="s">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="P10" s="85" t="s">
-        <v>340</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="85" t="s">
-        <v>342</v>
+        <v>284</v>
       </c>
       <c r="R10" s="85" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="S10" s="96"/>
       <c r="V10" s="99"/>
@@ -3845,47 +3973,47 @@
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
       <c r="D12" s="84" t="s">
-        <v>206</v>
+        <v>287</v>
       </c>
       <c r="E12" s="84" t="s">
-        <v>343</v>
+        <v>289</v>
       </c>
       <c r="F12" s="84" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="G12" s="84" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="I12" s="84" t="s">
-        <v>351</v>
+        <v>297</v>
       </c>
       <c r="J12" s="84"/>
       <c r="K12" s="84" t="s">
-        <v>224</v>
+        <v>299</v>
       </c>
       <c r="L12" s="84" t="s">
-        <v>228</v>
+        <v>301</v>
       </c>
       <c r="M12" s="84" t="s">
-        <v>244</v>
+        <v>303</v>
       </c>
       <c r="N12" s="84" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="O12" s="84" t="s">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="P12" s="84" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="Q12" s="84" t="s">
-        <v>238</v>
+        <v>311</v>
       </c>
       <c r="R12" s="84" t="s">
-        <v>254</v>
+        <v>313</v>
       </c>
       <c r="S12" s="93"/>
       <c r="V12" s="99"/>
@@ -3896,49 +4024,49 @@
         <v>3</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="E13" s="80" t="s">
-        <v>293</v>
+        <v>211</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>294</v>
+        <v>212</v>
       </c>
       <c r="G13" s="80" t="s">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="H13" s="80" t="s">
-        <v>296</v>
+        <v>214</v>
       </c>
       <c r="I13" s="80" t="s">
-        <v>297</v>
+        <v>215</v>
       </c>
       <c r="J13" s="80" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="K13" s="80" t="s">
-        <v>298</v>
+        <v>216</v>
       </c>
       <c r="L13" s="80" t="s">
-        <v>299</v>
+        <v>217</v>
       </c>
       <c r="M13" s="80" t="s">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="N13" s="80" t="s">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="O13" s="80" t="s">
-        <v>302</v>
+        <v>220</v>
       </c>
       <c r="P13" s="80" t="s">
-        <v>303</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="80" t="s">
-        <v>262</v>
+        <v>186</v>
       </c>
       <c r="R13" s="80" t="s">
-        <v>304</v>
+        <v>222</v>
       </c>
       <c r="S13" s="94"/>
       <c r="V13" s="99"/>
@@ -3946,47 +4074,47 @@
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="85" t="s">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="G14" s="85" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="H14" s="85" t="s">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="I14" s="85" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="J14" s="85"/>
       <c r="K14" s="85" t="s">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="L14" s="85" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="M14" s="85" t="s">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="N14" s="85" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="O14" s="85" t="s">
-        <v>215</v>
+        <v>308</v>
       </c>
       <c r="P14" s="85" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="85" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="R14" s="85" t="s">
-        <v>255</v>
+        <v>314</v>
       </c>
       <c r="S14" s="96"/>
       <c r="V14" s="99"/>
@@ -4014,43 +4142,43 @@
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
       <c r="D16" s="84" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="E16" s="84" t="s">
-        <v>190</v>
+        <v>315</v>
       </c>
       <c r="F16" s="84" t="s">
-        <v>202</v>
+        <v>317</v>
       </c>
       <c r="G16" s="84" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="H16" s="84"/>
       <c r="I16" s="84" t="s">
-        <v>192</v>
+        <v>321</v>
       </c>
       <c r="J16" s="84" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
       <c r="K16" s="84"/>
       <c r="L16" s="84" t="s">
-        <v>198</v>
+        <v>323</v>
       </c>
       <c r="M16" s="84" t="s">
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="N16" s="84" t="s">
-        <v>220</v>
+        <v>327</v>
       </c>
       <c r="O16" s="84" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
       <c r="P16" s="84"/>
       <c r="Q16" s="84" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="R16" s="84" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="S16" s="93"/>
       <c r="V16" s="99"/>
@@ -4061,49 +4189,49 @@
         <v>4</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>306</v>
+        <v>224</v>
       </c>
       <c r="G17" s="80" t="s">
-        <v>307</v>
+        <v>225</v>
       </c>
       <c r="H17" s="80" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="I17" s="80" t="s">
-        <v>308</v>
+        <v>226</v>
       </c>
       <c r="J17" s="80" t="s">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="K17" s="80" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="L17" s="80" t="s">
-        <v>309</v>
+        <v>227</v>
       </c>
       <c r="M17" s="80" t="s">
-        <v>310</v>
+        <v>228</v>
       </c>
       <c r="N17" s="80" t="s">
-        <v>311</v>
+        <v>229</v>
       </c>
       <c r="O17" s="80" t="s">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="P17" s="80" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="Q17" s="80" t="s">
-        <v>312</v>
+        <v>230</v>
       </c>
       <c r="R17" s="80" t="s">
-        <v>313</v>
+        <v>231</v>
       </c>
       <c r="S17" s="94"/>
       <c r="V17" s="99"/>
@@ -4111,43 +4239,43 @@
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="85" t="s">
-        <v>185</v>
+        <v>272</v>
       </c>
       <c r="E18" s="85" t="s">
-        <v>191</v>
+        <v>316</v>
       </c>
       <c r="F18" s="85" t="s">
-        <v>203</v>
+        <v>318</v>
       </c>
       <c r="G18" s="85" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="H18" s="85"/>
       <c r="I18" s="85" t="s">
-        <v>193</v>
+        <v>322</v>
       </c>
       <c r="J18" s="85" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="K18" s="85"/>
       <c r="L18" s="85" t="s">
-        <v>199</v>
+        <v>324</v>
       </c>
       <c r="M18" s="85" t="s">
-        <v>201</v>
+        <v>326</v>
       </c>
       <c r="N18" s="85" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="O18" s="85" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="P18" s="85"/>
       <c r="Q18" s="85" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="R18" s="85" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="S18" s="96"/>
       <c r="V18" s="99"/>
@@ -4175,45 +4303,45 @@
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
       <c r="D20" s="84" t="s">
-        <v>252</v>
+        <v>333</v>
       </c>
       <c r="E20" s="84" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="F20" s="84"/>
       <c r="G20" s="84" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="H20" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="I20" s="84" t="s">
+        <v>283</v>
+      </c>
+      <c r="J20" s="84" t="s">
+        <v>301</v>
+      </c>
+      <c r="K20" s="84" t="s">
         <v>339</v>
       </c>
-      <c r="I20" s="84" t="s">
+      <c r="L20" s="84" t="s">
         <v>341</v>
       </c>
-      <c r="J20" s="84" t="s">
-        <v>228</v>
-      </c>
-      <c r="K20" s="84" t="s">
-        <v>361</v>
-      </c>
-      <c r="L20" s="84" t="s">
-        <v>363</v>
-      </c>
       <c r="M20" s="84" t="s">
-        <v>220</v>
+        <v>327</v>
       </c>
       <c r="N20" s="84"/>
       <c r="O20" s="84" t="s">
-        <v>222</v>
+        <v>343</v>
       </c>
       <c r="P20" s="84" t="s">
-        <v>206</v>
+        <v>287</v>
       </c>
       <c r="Q20" s="84" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="R20" s="84" t="s">
-        <v>226</v>
+        <v>345</v>
       </c>
       <c r="S20" s="93"/>
       <c r="V20" s="99"/>
@@ -4224,49 +4352,49 @@
         <v>5</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>314</v>
+        <v>232</v>
       </c>
       <c r="E21" s="80" t="s">
-        <v>315</v>
+        <v>233</v>
       </c>
       <c r="F21" s="80" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="G21" s="80" t="s">
-        <v>316</v>
+        <v>234</v>
       </c>
       <c r="H21" s="80" t="s">
-        <v>289</v>
+        <v>207</v>
       </c>
       <c r="I21" s="80" t="s">
-        <v>290</v>
+        <v>208</v>
       </c>
       <c r="J21" s="80" t="s">
-        <v>299</v>
+        <v>217</v>
       </c>
       <c r="K21" s="80" t="s">
-        <v>317</v>
+        <v>235</v>
       </c>
       <c r="L21" s="80" t="s">
-        <v>318</v>
+        <v>236</v>
       </c>
       <c r="M21" s="80" t="s">
-        <v>311</v>
+        <v>229</v>
       </c>
       <c r="N21" s="80" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="O21" s="80" t="s">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="P21" s="80" t="s">
-        <v>319</v>
+        <v>237</v>
       </c>
       <c r="Q21" s="80" t="s">
-        <v>317</v>
+        <v>235</v>
       </c>
       <c r="R21" s="80" t="s">
-        <v>320</v>
+        <v>238</v>
       </c>
       <c r="S21" s="94"/>
       <c r="V21" s="99"/>
@@ -4274,45 +4402,45 @@
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
       <c r="D22" s="85" t="s">
-        <v>253</v>
+        <v>334</v>
       </c>
       <c r="E22" s="85" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="F22" s="85"/>
       <c r="G22" s="85" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="H22" s="85" t="s">
+        <v>282</v>
+      </c>
+      <c r="I22" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="J22" s="85" t="s">
+        <v>302</v>
+      </c>
+      <c r="K22" s="85" t="s">
         <v>340</v>
       </c>
-      <c r="I22" s="85" t="s">
+      <c r="L22" s="85" t="s">
         <v>342</v>
       </c>
-      <c r="J22" s="85" t="s">
-        <v>229</v>
-      </c>
-      <c r="K22" s="85" t="s">
-        <v>362</v>
-      </c>
-      <c r="L22" s="85" t="s">
-        <v>364</v>
-      </c>
       <c r="M22" s="85" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="N22" s="85"/>
       <c r="O22" s="85" t="s">
-        <v>223</v>
+        <v>344</v>
       </c>
       <c r="P22" s="85" t="s">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="Q22" s="85" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="R22" s="85" t="s">
-        <v>227</v>
+        <v>346</v>
       </c>
       <c r="S22" s="96"/>
       <c r="V22" s="100"/>
@@ -4340,43 +4468,43 @@
     <row r="24" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="56"/>
       <c r="D24" s="84" t="s">
-        <v>248</v>
+        <v>347</v>
       </c>
       <c r="E24" s="84" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
       <c r="F24" s="84" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="G24" s="84" t="s">
-        <v>216</v>
+        <v>349</v>
       </c>
       <c r="H24" s="84"/>
       <c r="I24" s="84" t="s">
-        <v>256</v>
+        <v>351</v>
       </c>
       <c r="J24" s="84" t="s">
-        <v>246</v>
+        <v>353</v>
       </c>
       <c r="K24" s="84" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="L24" s="84" t="s">
-        <v>248</v>
+        <v>357</v>
       </c>
       <c r="M24" s="84"/>
       <c r="N24" s="84" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="O24" s="84" t="s">
-        <v>220</v>
+        <v>327</v>
       </c>
       <c r="P24" s="84" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="Q24" s="84"/>
       <c r="R24" s="84" t="s">
-        <v>250</v>
+        <v>363</v>
       </c>
       <c r="S24" s="93"/>
       <c r="V24" s="60"/>
@@ -4387,49 +4515,49 @@
         <v>6</v>
       </c>
       <c r="D25" s="80" t="s">
-        <v>321</v>
+        <v>239</v>
       </c>
       <c r="E25" s="80" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="F25" s="80" t="s">
-        <v>318</v>
+        <v>236</v>
       </c>
       <c r="G25" s="80" t="s">
-        <v>322</v>
+        <v>240</v>
       </c>
       <c r="H25" s="80" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="I25" s="80" t="s">
-        <v>323</v>
+        <v>241</v>
       </c>
       <c r="J25" s="80" t="s">
-        <v>324</v>
+        <v>242</v>
       </c>
       <c r="K25" s="80" t="s">
-        <v>325</v>
+        <v>243</v>
       </c>
       <c r="L25" s="80" t="s">
-        <v>326</v>
+        <v>244</v>
       </c>
       <c r="M25" s="80" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="N25" s="80" t="s">
-        <v>327</v>
+        <v>245</v>
       </c>
       <c r="O25" s="80" t="s">
-        <v>311</v>
+        <v>229</v>
       </c>
       <c r="P25" s="80" t="s">
-        <v>328</v>
+        <v>246</v>
       </c>
       <c r="Q25" s="80" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="R25" s="80" t="s">
-        <v>329</v>
+        <v>247</v>
       </c>
       <c r="S25" s="94"/>
       <c r="V25" s="60"/>
@@ -4437,43 +4565,43 @@
     <row r="26" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="58"/>
       <c r="D26" s="85" t="s">
-        <v>249</v>
+        <v>348</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="F26" s="85" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="G26" s="85" t="s">
-        <v>217</v>
+        <v>350</v>
       </c>
       <c r="H26" s="85"/>
       <c r="I26" s="85" t="s">
-        <v>257</v>
+        <v>352</v>
       </c>
       <c r="J26" s="85" t="s">
-        <v>247</v>
+        <v>354</v>
       </c>
       <c r="K26" s="85" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="L26" s="85" t="s">
-        <v>249</v>
+        <v>358</v>
       </c>
       <c r="M26" s="85"/>
       <c r="N26" s="85" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="O26" s="85" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="P26" s="85" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="Q26" s="85"/>
       <c r="R26" s="85" t="s">
-        <v>251</v>
+        <v>364</v>
       </c>
       <c r="S26" s="96"/>
       <c r="U26" s="1" t="str">
@@ -4509,33 +4637,33 @@
     <row r="28" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="56"/>
       <c r="D28" s="84" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="E28" s="84" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="F28" s="84"/>
       <c r="G28" s="84" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H28" s="84" t="s">
-        <v>240</v>
+        <v>367</v>
       </c>
       <c r="I28" s="84" t="s">
-        <v>216</v>
+        <v>349</v>
       </c>
       <c r="J28" s="84"/>
       <c r="K28" s="84" t="s">
-        <v>258</v>
+        <v>369</v>
       </c>
       <c r="L28" s="84" t="s">
-        <v>275</v>
+        <v>371</v>
       </c>
       <c r="M28" s="84" t="s">
-        <v>218</v>
+        <v>373</v>
       </c>
       <c r="N28" s="84" t="s">
-        <v>275</v>
+        <v>371</v>
       </c>
       <c r="O28" s="84"/>
       <c r="P28" s="84"/>
@@ -4554,40 +4682,40 @@
         <v>7</v>
       </c>
       <c r="D29" s="80" t="s">
-        <v>313</v>
+        <v>231</v>
       </c>
       <c r="E29" s="80" t="s">
-        <v>315</v>
+        <v>233</v>
       </c>
       <c r="F29" s="80" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="G29" s="80" t="s">
-        <v>330</v>
+        <v>248</v>
       </c>
       <c r="H29" s="80" t="s">
-        <v>268</v>
+        <v>192</v>
       </c>
       <c r="I29" s="80" t="s">
-        <v>322</v>
+        <v>240</v>
       </c>
       <c r="J29" s="80" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="K29" s="80" t="s">
-        <v>331</v>
+        <v>249</v>
       </c>
       <c r="L29" s="80" t="s">
-        <v>332</v>
+        <v>250</v>
       </c>
       <c r="M29" s="80" t="s">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="N29" s="80" t="s">
-        <v>334</v>
+        <v>252</v>
       </c>
       <c r="O29" s="80" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="P29" s="80"/>
       <c r="Q29" s="80"/>
@@ -4602,33 +4730,33 @@
     <row r="30" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="58"/>
       <c r="D30" s="85" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="E30" s="85" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="F30" s="85"/>
       <c r="G30" s="85" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H30" s="85" t="s">
-        <v>241</v>
+        <v>368</v>
       </c>
       <c r="I30" s="85" t="s">
-        <v>217</v>
+        <v>350</v>
       </c>
       <c r="J30" s="85"/>
       <c r="K30" s="85" t="s">
-        <v>259</v>
+        <v>370</v>
       </c>
       <c r="L30" s="85" t="s">
-        <v>276</v>
+        <v>372</v>
       </c>
       <c r="M30" s="85" t="s">
-        <v>219</v>
+        <v>374</v>
       </c>
       <c r="N30" s="85" t="s">
-        <v>276</v>
+        <v>372</v>
       </c>
       <c r="O30" s="85"/>
       <c r="P30" s="85"/>
